--- a/BackTest/2019-10-16 BackTest DAC.xlsx
+++ b/BackTest/2019-10-16 BackTest DAC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.07000000000000295</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-19.99999999999858</v>
+      </c>
       <c r="L12" t="n">
         <v>4.44</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.07000000000000295</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-19.99999999999858</v>
+      </c>
       <c r="L13" t="n">
         <v>4.438999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.07000000000000295</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-19.99999999999858</v>
+      </c>
       <c r="L14" t="n">
         <v>4.437999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.08000000000000274</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>4.437999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.08000000000000274</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>49.99999999999889</v>
+      </c>
       <c r="L16" t="n">
         <v>4.437999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.08000000000000274</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333136</v>
+      </c>
       <c r="L17" t="n">
         <v>4.44</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.09000000000000252</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333531</v>
+      </c>
       <c r="L18" t="n">
         <v>4.44</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.09000000000000252</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333531</v>
+      </c>
       <c r="L19" t="n">
         <v>4.440999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.09000000000000252</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333531</v>
+      </c>
       <c r="L20" t="n">
         <v>4.441999999999998</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.1000000000000023</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>4.443999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.1000000000000023</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>4.444999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.1100000000000021</v>
       </c>
       <c r="K23" t="n">
-        <v>-11.11111111111067</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>4.444999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.1100000000000021</v>
       </c>
       <c r="K24" t="n">
-        <v>-11.11111111111067</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>4.444999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.1100000000000021</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.11111111111067</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>4.443999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>0.1200000000000028</v>
       </c>
       <c r="K26" t="n">
-        <v>-20</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L26" t="n">
         <v>4.441999999999998</v>
@@ -1613,7 +1635,7 @@
         <v>0.1300000000000034</v>
       </c>
       <c r="K27" t="n">
-        <v>11.11111111111155</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>4.440999999999998</v>
@@ -1662,7 +1684,7 @@
         <v>0.1400000000000041</v>
       </c>
       <c r="K28" t="n">
-        <v>-11.11111111111155</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L28" t="n">
         <v>4.439999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>0.1400000000000041</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L29" t="n">
         <v>4.438999999999998</v>
@@ -1760,7 +1782,7 @@
         <v>0.1400000000000041</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L30" t="n">
         <v>4.437999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>0.1500000000000039</v>
       </c>
       <c r="K31" t="n">
-        <v>-11.11111111111067</v>
+        <v>-59.99999999999858</v>
       </c>
       <c r="L31" t="n">
         <v>4.434999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>0.1600000000000037</v>
       </c>
       <c r="K32" t="n">
-        <v>-11.11111111111177</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L32" t="n">
         <v>4.432999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>0.1700000000000035</v>
       </c>
       <c r="K33" t="n">
-        <v>-20.00000000000036</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>4.430999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>0.2100000000000044</v>
       </c>
       <c r="K35" t="n">
-        <v>-23.07692307692297</v>
+        <v>-11.11111111111067</v>
       </c>
       <c r="L35" t="n">
         <v>4.428999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>0.2300000000000049</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.666666666666429</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>4.429999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>0.2300000000000049</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.666666666666429</v>
+        <v>11.11111111111177</v>
       </c>
       <c r="L37" t="n">
         <v>4.429999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>0.2400000000000055</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.666666666666983</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>4.429999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>0.2500000000000053</v>
       </c>
       <c r="K39" t="n">
-        <v>-12.50000000000007</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L39" t="n">
         <v>4.428999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>0.2500000000000053</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.50000000000007</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>4.427999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>0.2600000000000051</v>
       </c>
       <c r="K41" t="n">
-        <v>-12.50000000000007</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>4.428999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>0.2600000000000051</v>
       </c>
       <c r="K42" t="n">
-        <v>-12.50000000000007</v>
+        <v>11.11111111111067</v>
       </c>
       <c r="L42" t="n">
         <v>4.428999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>0.2700000000000049</v>
       </c>
       <c r="K43" t="n">
-        <v>-12.50000000000007</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L43" t="n">
         <v>4.428999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>0.2800000000000047</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.882352941176778</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L44" t="n">
         <v>4.427999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>0.2900000000000045</v>
       </c>
       <c r="K45" t="n">
-        <v>-11.11111111111122</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L45" t="n">
         <v>4.427999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>0.3100000000000049</v>
       </c>
       <c r="K46" t="n">
-        <v>5.263157894737137</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>4.427999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>0.3300000000000054</v>
       </c>
       <c r="K47" t="n">
-        <v>-10.00000000000013</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L47" t="n">
         <v>4.426</v>
@@ -2676,7 +2698,7 @@
         <v>0.3500000000000059</v>
       </c>
       <c r="K48" t="n">
-        <v>4.761904761905044</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L48" t="n">
         <v>4.427</v>
@@ -2727,7 +2749,7 @@
         <v>0.3500000000000059</v>
       </c>
       <c r="K49" t="n">
-        <v>4.761904761905044</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L49" t="n">
         <v>4.428999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>0.3700000000000063</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.347826086956387</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L50" t="n">
         <v>4.428999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>0.3900000000000068</v>
       </c>
       <c r="K51" t="n">
-        <v>8.333333333333426</v>
+        <v>7.692307692308114</v>
       </c>
       <c r="L51" t="n">
         <v>4.429999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>0.4000000000000066</v>
       </c>
       <c r="K52" t="n">
-        <v>8.333333333333426</v>
+        <v>23.07692307692297</v>
       </c>
       <c r="L52" t="n">
         <v>4.431999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>0.4000000000000066</v>
       </c>
       <c r="K53" t="n">
-        <v>13.0434782608695</v>
+        <v>16.66666666666679</v>
       </c>
       <c r="L53" t="n">
         <v>4.435</v>
@@ -2982,7 +3004,7 @@
         <v>0.4000000000000066</v>
       </c>
       <c r="K54" t="n">
-        <v>4.761904761904601</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L54" t="n">
         <v>4.436999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>0.4000000000000066</v>
       </c>
       <c r="K55" t="n">
-        <v>15.78947368421048</v>
+        <v>11.11111111111067</v>
       </c>
       <c r="L55" t="n">
         <v>4.44</v>
@@ -3084,7 +3106,7 @@
         <v>0.420000000000007</v>
       </c>
       <c r="K56" t="n">
-        <v>-5.263157894737137</v>
+        <v>11.11111111111067</v>
       </c>
       <c r="L56" t="n">
         <v>4.439</v>
@@ -3186,7 +3208,7 @@
         <v>0.4300000000000077</v>
       </c>
       <c r="K58" t="n">
-        <v>5.263157894737137</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>4.441</v>
@@ -3237,7 +3259,7 @@
         <v>0.4400000000000084</v>
       </c>
       <c r="K59" t="n">
-        <v>5.263157894736645</v>
+        <v>14.28571428571356</v>
       </c>
       <c r="L59" t="n">
         <v>4.44</v>
@@ -3288,7 +3310,7 @@
         <v>0.4400000000000084</v>
       </c>
       <c r="K60" t="n">
-        <v>5.263157894736645</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L60" t="n">
         <v>4.441</v>
@@ -3339,7 +3361,7 @@
         <v>0.4400000000000084</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L61" t="n">
         <v>4.44</v>
@@ -3390,7 +3412,7 @@
         <v>0.4400000000000084</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L62" t="n">
         <v>4.438</v>
@@ -3441,7 +3463,7 @@
         <v>0.4500000000000091</v>
       </c>
       <c r="K63" t="n">
-        <v>11.11111111111111</v>
+        <v>-19.99999999999858</v>
       </c>
       <c r="L63" t="n">
         <v>4.436999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>0.4500000000000091</v>
       </c>
       <c r="K64" t="n">
-        <v>5.882352941176716</v>
+        <v>-19.99999999999858</v>
       </c>
       <c r="L64" t="n">
         <v>4.435999999999998</v>
@@ -3543,7 +3565,7 @@
         <v>0.4600000000000097</v>
       </c>
       <c r="K65" t="n">
-        <v>5.882352941176163</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>4.433999999999998</v>
@@ -3645,7 +3667,7 @@
         <v>0.4700000000000104</v>
       </c>
       <c r="K67" t="n">
-        <v>14.28571428571411</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>4.434999999999998</v>
@@ -3696,7 +3718,7 @@
         <v>0.4800000000000111</v>
       </c>
       <c r="K68" t="n">
-        <v>-7.692307692307902</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>4.433999999999998</v>
@@ -3747,7 +3769,7 @@
         <v>0.4900000000000118</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>4.434999999999998</v>
@@ -3798,7 +3820,7 @@
         <v>0.4900000000000118</v>
       </c>
       <c r="K70" t="n">
-        <v>16.66666666666629</v>
+        <v>20</v>
       </c>
       <c r="L70" t="n">
         <v>4.435999999999998</v>
@@ -3849,7 +3871,7 @@
         <v>0.4900000000000118</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L71" t="n">
         <v>4.436999999999998</v>
@@ -3900,7 +3922,7 @@
         <v>0.4900000000000118</v>
       </c>
       <c r="K72" t="n">
-        <v>-11.11111111111023</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>4.437999999999997</v>
@@ -3951,7 +3973,7 @@
         <v>0.5000000000000124</v>
       </c>
       <c r="K73" t="n">
-        <v>-19.99999999999929</v>
+        <v>-20</v>
       </c>
       <c r="L73" t="n">
         <v>4.436999999999998</v>
@@ -4002,7 +4024,7 @@
         <v>0.5000000000000124</v>
       </c>
       <c r="K74" t="n">
-        <v>-19.99999999999929</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>4.435999999999998</v>
@@ -4053,7 +4075,7 @@
         <v>0.5100000000000131</v>
       </c>
       <c r="K75" t="n">
-        <v>-9.090909090908356</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>4.436999999999998</v>
@@ -4104,7 +4126,7 @@
         <v>0.5100000000000131</v>
       </c>
       <c r="K76" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>4.436999999999998</v>
@@ -4155,7 +4177,7 @@
         <v>0.5100000000000131</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>4.436999999999998</v>
@@ -4257,7 +4279,7 @@
         <v>0.5200000000000138</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>4.436999999999998</v>
@@ -4308,7 +4330,7 @@
         <v>0.5200000000000138</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>4.435999999999998</v>
@@ -4359,7 +4381,7 @@
         <v>0.5300000000000145</v>
       </c>
       <c r="K81" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>4.435999999999998</v>
@@ -4410,7 +4432,7 @@
         <v>0.5300000000000145</v>
       </c>
       <c r="K82" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>4.435999999999998</v>
@@ -4461,7 +4483,7 @@
         <v>0.5400000000000151</v>
       </c>
       <c r="K83" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>4.435999999999998</v>
@@ -4512,7 +4534,7 @@
         <v>0.5400000000000151</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>4.435999999999998</v>
@@ -4563,7 +4585,7 @@
         <v>0.5400000000000151</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>4.434999999999998</v>
@@ -4665,7 +4687,7 @@
         <v>0.5600000000000165</v>
       </c>
       <c r="K87" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>4.433999999999998</v>
@@ -4716,7 +4738,7 @@
         <v>0.5700000000000172</v>
       </c>
       <c r="K88" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L88" t="n">
         <v>4.433999999999998</v>
@@ -4767,7 +4789,7 @@
         <v>0.5700000000000172</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
         <v>4.434999999999998</v>
@@ -4818,7 +4840,7 @@
         <v>0.5800000000000178</v>
       </c>
       <c r="K90" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L90" t="n">
         <v>4.434999999999998</v>
@@ -4920,7 +4942,7 @@
         <v>0.6000000000000192</v>
       </c>
       <c r="K92" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>4.433999999999998</v>
@@ -5073,7 +5095,7 @@
         <v>0.6000000000000192</v>
       </c>
       <c r="K95" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>4.433999999999998</v>
@@ -5124,7 +5146,7 @@
         <v>0.6000000000000192</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>4.432999999999998</v>
@@ -5175,7 +5197,7 @@
         <v>0.6200000000000196</v>
       </c>
       <c r="K97" t="n">
-        <v>9.090909090908356</v>
+        <v>19.99999999999858</v>
       </c>
       <c r="L97" t="n">
         <v>4.434999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>0.6400000000000201</v>
       </c>
       <c r="K98" t="n">
-        <v>-7.692307692307796</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L98" t="n">
         <v>4.433999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>0.6500000000000208</v>
       </c>
       <c r="K99" t="n">
-        <v>7.692307692307796</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L99" t="n">
         <v>4.433999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>0.6600000000000206</v>
       </c>
       <c r="K100" t="n">
-        <v>14.28571428571392</v>
+        <v>14.28571428571356</v>
       </c>
       <c r="L100" t="n">
         <v>4.435999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>0.6600000000000206</v>
       </c>
       <c r="K101" t="n">
-        <v>7.692307692307167</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>4.436999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>0.6700000000000204</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L102" t="n">
         <v>4.438</v>
@@ -5481,7 +5503,7 @@
         <v>0.6700000000000204</v>
       </c>
       <c r="K103" t="n">
-        <v>7.692307692307902</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L103" t="n">
         <v>4.438999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>0.6800000000000201</v>
       </c>
       <c r="K104" t="n">
-        <v>14.28571428571411</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L104" t="n">
         <v>4.441</v>
@@ -5583,7 +5605,7 @@
         <v>0.6800000000000201</v>
       </c>
       <c r="K105" t="n">
-        <v>14.28571428571411</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L105" t="n">
         <v>4.443</v>
@@ -5634,7 +5656,7 @@
         <v>0.6900000000000199</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L106" t="n">
         <v>4.444</v>
@@ -5685,7 +5707,7 @@
         <v>0.7000000000000197</v>
       </c>
       <c r="K107" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L107" t="n">
         <v>4.444</v>
@@ -5787,7 +5809,7 @@
         <v>0.7200000000000193</v>
       </c>
       <c r="K109" t="n">
-        <v>6.666666666666429</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>4.446</v>
@@ -5838,7 +5860,7 @@
         <v>0.7200000000000193</v>
       </c>
       <c r="K110" t="n">
-        <v>14.28571428571447</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>4.446</v>
@@ -5940,7 +5962,7 @@
         <v>0.7400000000000189</v>
       </c>
       <c r="K112" t="n">
-        <v>14.28571428571465</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L112" t="n">
         <v>4.446</v>
@@ -5991,7 +6013,7 @@
         <v>0.7500000000000187</v>
       </c>
       <c r="K113" t="n">
-        <v>6.666666666667139</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L113" t="n">
         <v>4.446</v>
@@ -6042,7 +6064,7 @@
         <v>0.7500000000000187</v>
       </c>
       <c r="K114" t="n">
-        <v>6.666666666667139</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L114" t="n">
         <v>4.444999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>0.7500000000000187</v>
       </c>
       <c r="K115" t="n">
-        <v>6.666666666667139</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>4.443999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>0.7600000000000184</v>
       </c>
       <c r="K116" t="n">
-        <v>12.50000000000035</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>4.444999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>0.7600000000000184</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>4.444999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>0.7600000000000184</v>
       </c>
       <c r="K118" t="n">
-        <v>16.66666666666729</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>4.446</v>
@@ -6297,7 +6319,7 @@
         <v>0.7700000000000182</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L119" t="n">
         <v>4.444999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>0.7700000000000182</v>
       </c>
       <c r="K120" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>4.443999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>0.7900000000000178</v>
       </c>
       <c r="K122" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L122" t="n">
         <v>4.446</v>
@@ -6501,7 +6523,7 @@
         <v>0.8000000000000176</v>
       </c>
       <c r="K123" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L123" t="n">
         <v>4.447</v>
@@ -6552,7 +6574,7 @@
         <v>0.820000000000018</v>
       </c>
       <c r="K124" t="n">
-        <v>-14.28571428571483</v>
+        <v>-14.28571428571537</v>
       </c>
       <c r="L124" t="n">
         <v>4.446</v>
@@ -6603,7 +6625,7 @@
         <v>0.8300000000000187</v>
       </c>
       <c r="K125" t="n">
-        <v>-6.666666666666588</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L125" t="n">
         <v>4.446</v>
@@ -6654,7 +6676,7 @@
         <v>0.8300000000000187</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L126" t="n">
         <v>4.444999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>0.8400000000000185</v>
       </c>
       <c r="K128" t="n">
-        <v>7.692307692307587</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L128" t="n">
         <v>4.444999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>0.8400000000000185</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L129" t="n">
         <v>4.446</v>
@@ -6909,7 +6931,7 @@
         <v>0.8500000000000183</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L131" t="n">
         <v>4.446</v>
@@ -7011,7 +7033,7 @@
         <v>0.8700000000000179</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L133" t="n">
         <v>4.444</v>
@@ -7062,7 +7084,7 @@
         <v>0.8800000000000185</v>
       </c>
       <c r="K134" t="n">
-        <v>-7.692307692308217</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L134" t="n">
         <v>4.444</v>
@@ -7164,7 +7186,7 @@
         <v>0.8900000000000192</v>
       </c>
       <c r="K136" t="n">
-        <v>-7.692307692307482</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L136" t="n">
         <v>4.444</v>
@@ -7317,7 +7339,7 @@
         <v>0.900000000000019</v>
       </c>
       <c r="K139" t="n">
-        <v>7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>4.444</v>
@@ -7368,7 +7390,7 @@
         <v>0.9200000000000195</v>
       </c>
       <c r="K140" t="n">
-        <v>-6.666666666667062</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L140" t="n">
         <v>4.441999999999999</v>
@@ -7419,7 +7441,7 @@
         <v>0.9200000000000195</v>
       </c>
       <c r="K141" t="n">
-        <v>-14.28571428571447</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>4.441</v>
@@ -7470,7 +7492,7 @@
         <v>0.9200000000000195</v>
       </c>
       <c r="K142" t="n">
-        <v>-23.07692307692297</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L142" t="n">
         <v>4.438999999999999</v>
@@ -7521,7 +7543,7 @@
         <v>0.9300000000000193</v>
       </c>
       <c r="K143" t="n">
-        <v>-23.07692307692297</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L143" t="n">
         <v>4.436999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>0.9300000000000193</v>
       </c>
       <c r="K144" t="n">
-        <v>-9.090909090908797</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L144" t="n">
         <v>4.436</v>
@@ -7623,7 +7645,7 @@
         <v>0.9500000000000188</v>
       </c>
       <c r="K145" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L145" t="n">
         <v>4.432</v>
@@ -7674,7 +7696,7 @@
         <v>0.9500000000000188</v>
       </c>
       <c r="K146" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L146" t="n">
         <v>4.428</v>
@@ -7725,7 +7747,7 @@
         <v>0.9500000000000188</v>
       </c>
       <c r="K147" t="n">
-        <v>-45.45454545454516</v>
+        <v>-100</v>
       </c>
       <c r="L147" t="n">
         <v>4.423</v>
@@ -7776,7 +7798,7 @@
         <v>0.9500000000000188</v>
       </c>
       <c r="K148" t="n">
-        <v>-45.45454545454516</v>
+        <v>-100</v>
       </c>
       <c r="L148" t="n">
         <v>4.417999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>0.9500000000000188</v>
       </c>
       <c r="K149" t="n">
-        <v>-45.45454545454516</v>
+        <v>-100</v>
       </c>
       <c r="L149" t="n">
         <v>4.412999999999998</v>
@@ -7878,7 +7900,7 @@
         <v>0.9500000000000188</v>
       </c>
       <c r="K150" t="n">
-        <v>-45.45454545454516</v>
+        <v>-100</v>
       </c>
       <c r="L150" t="n">
         <v>4.409999999999998</v>
@@ -7929,7 +7951,7 @@
         <v>0.9600000000000195</v>
       </c>
       <c r="K151" t="n">
-        <v>-45.4545454545456</v>
+        <v>-100</v>
       </c>
       <c r="L151" t="n">
         <v>4.405999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>0.9700000000000193</v>
       </c>
       <c r="K152" t="n">
-        <v>-63.63636363636319</v>
+        <v>-100</v>
       </c>
       <c r="L152" t="n">
         <v>4.400999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>0.9700000000000193</v>
       </c>
       <c r="K153" t="n">
-        <v>-59.99999999999964</v>
+        <v>-100</v>
       </c>
       <c r="L153" t="n">
         <v>4.396999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>0.9700000000000193</v>
       </c>
       <c r="K154" t="n">
-        <v>-55.5555555555549</v>
+        <v>-100</v>
       </c>
       <c r="L154" t="n">
         <v>4.392999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>0.9700000000000193</v>
       </c>
       <c r="K155" t="n">
-        <v>-75.00000000000055</v>
+        <v>-100</v>
       </c>
       <c r="L155" t="n">
         <v>4.391</v>
@@ -8184,7 +8206,7 @@
         <v>0.9700000000000193</v>
       </c>
       <c r="K156" t="n">
-        <v>-75.00000000000055</v>
+        <v>-100</v>
       </c>
       <c r="L156" t="n">
         <v>4.389</v>
@@ -8235,7 +8257,7 @@
         <v>0.9800000000000191</v>
       </c>
       <c r="K157" t="n">
-        <v>-75.00000000000055</v>
+        <v>-33.33333333333531</v>
       </c>
       <c r="L157" t="n">
         <v>4.388</v>
@@ -8286,7 +8308,7 @@
         <v>0.9900000000000189</v>
       </c>
       <c r="K158" t="n">
-        <v>-77.77777777777821</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L158" t="n">
         <v>4.386000000000001</v>
@@ -8337,7 +8359,7 @@
         <v>1.000000000000019</v>
       </c>
       <c r="K159" t="n">
-        <v>-60.00000000000071</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L159" t="n">
         <v>4.385000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>1.060000000000018</v>
       </c>
       <c r="K160" t="n">
-        <v>-71.4285714285718</v>
+        <v>-60.00000000000036</v>
       </c>
       <c r="L160" t="n">
         <v>4.378000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>1.100000000000018</v>
       </c>
       <c r="K161" t="n">
-        <v>-33.33333333333333</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L161" t="n">
         <v>4.376</v>
@@ -8490,7 +8512,7 @@
         <v>1.100000000000018</v>
       </c>
       <c r="K162" t="n">
-        <v>-33.33333333333333</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L162" t="n">
         <v>4.375</v>
@@ -8541,7 +8563,7 @@
         <v>1.110000000000018</v>
       </c>
       <c r="K163" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L163" t="n">
         <v>4.372999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>1.130000000000018</v>
       </c>
       <c r="K164" t="n">
-        <v>-20.00000000000018</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>4.372999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>1.140000000000017</v>
       </c>
       <c r="K165" t="n">
-        <v>-15.78947368421077</v>
+        <v>-5.88235294117641</v>
       </c>
       <c r="L165" t="n">
         <v>4.371999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>1.150000000000017</v>
       </c>
       <c r="K166" t="n">
-        <v>-20.00000000000018</v>
+        <v>-17.64705882352923</v>
       </c>
       <c r="L166" t="n">
         <v>4.369999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>1.160000000000017</v>
       </c>
       <c r="K167" t="n">
-        <v>-14.28571428571453</v>
+        <v>-5.88235294117641</v>
       </c>
       <c r="L167" t="n">
         <v>4.367999999999999</v>
@@ -8796,7 +8818,7 @@
         <v>1.170000000000017</v>
       </c>
       <c r="K168" t="n">
-        <v>-9.090909090909385</v>
+        <v>-5.88235294117641</v>
       </c>
       <c r="L168" t="n">
         <v>4.367999999999999</v>
@@ -8847,7 +8869,7 @@
         <v>1.170000000000017</v>
       </c>
       <c r="K169" t="n">
-        <v>-9.090909090909385</v>
+        <v>45.45454545454589</v>
       </c>
       <c r="L169" t="n">
         <v>4.366999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>1.190000000000016</v>
       </c>
       <c r="K170" t="n">
-        <v>-16.66666666666685</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L170" t="n">
         <v>4.369999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>1.200000000000017</v>
       </c>
       <c r="K171" t="n">
-        <v>-16.66666666666685</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L171" t="n">
         <v>4.367999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>1.220000000000018</v>
       </c>
       <c r="K172" t="n">
-        <v>-3.999999999999943</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L172" t="n">
         <v>4.367999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>1.230000000000017</v>
       </c>
       <c r="K173" t="n">
-        <v>-7.692307692307587</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L173" t="n">
         <v>4.367999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>1.240000000000017</v>
       </c>
       <c r="K174" t="n">
-        <v>-3.703703703703655</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>4.366999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>1.260000000000018</v>
       </c>
       <c r="K175" t="n">
-        <v>-10.34482758620704</v>
+        <v>-9.090909090909678</v>
       </c>
       <c r="L175" t="n">
         <v>4.364999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>1.260000000000018</v>
       </c>
       <c r="K176" t="n">
-        <v>-10.34482758620704</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L176" t="n">
         <v>4.363999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>1.290000000000018</v>
       </c>
       <c r="K177" t="n">
-        <v>-3.225806451612848</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>4.365</v>
@@ -9306,7 +9328,7 @@
         <v>1.330000000000018</v>
       </c>
       <c r="K178" t="n">
-        <v>-11.76470588235299</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L178" t="n">
         <v>4.360999999999999</v>
@@ -9357,7 +9379,7 @@
         <v>1.360000000000018</v>
       </c>
       <c r="K179" t="n">
-        <v>-5.555555555555445</v>
+        <v>5.882352941176286</v>
       </c>
       <c r="L179" t="n">
         <v>4.359999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>1.390000000000018</v>
       </c>
       <c r="K180" t="n">
-        <v>3.030303030302965</v>
+        <v>-5.263157894736695</v>
       </c>
       <c r="L180" t="n">
         <v>4.357999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>1.420000000000019</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L182" t="n">
         <v>4.359999999999998</v>
@@ -9561,7 +9583,7 @@
         <v>1.420000000000019</v>
       </c>
       <c r="K183" t="n">
-        <v>3.22580645161283</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>4.360999999999998</v>
@@ -9612,7 +9634,7 @@
         <v>1.430000000000018</v>
       </c>
       <c r="K184" t="n">
-        <v>-6.666666666666508</v>
+        <v>5.88235294117684</v>
       </c>
       <c r="L184" t="n">
         <v>4.359999999999998</v>
@@ -9663,7 +9685,7 @@
         <v>1.450000000000018</v>
       </c>
       <c r="K185" t="n">
-        <v>3.22580645161283</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L185" t="n">
         <v>4.362999999999998</v>
@@ -9714,7 +9736,7 @@
         <v>1.450000000000018</v>
       </c>
       <c r="K186" t="n">
-        <v>6.666666666666508</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>4.365999999999998</v>
@@ -9765,7 +9787,7 @@
         <v>1.460000000000018</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L187" t="n">
         <v>4.364999999999998</v>
@@ -9816,7 +9838,7 @@
         <v>1.490000000000018</v>
       </c>
       <c r="K188" t="n">
-        <v>-12.49999999999996</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L188" t="n">
         <v>4.364999999999998</v>
@@ -9867,7 +9889,7 @@
         <v>1.530000000000018</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L189" t="n">
         <v>4.365999999999998</v>
@@ -9918,7 +9940,7 @@
         <v>1.530000000000018</v>
       </c>
       <c r="K190" t="n">
-        <v>5.882352941176317</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L190" t="n">
         <v>4.369999999999999</v>
@@ -9969,7 +9991,7 @@
         <v>1.560000000000018</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L191" t="n">
         <v>4.367999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>1.560000000000018</v>
       </c>
       <c r="K192" t="n">
-        <v>-5.882352941176594</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L192" t="n">
         <v>4.366</v>
@@ -10071,7 +10093,7 @@
         <v>1.570000000000018</v>
       </c>
       <c r="K193" t="n">
-        <v>-5.882352941176594</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L193" t="n">
         <v>4.363</v>
@@ -10122,7 +10144,7 @@
         <v>1.580000000000018</v>
       </c>
       <c r="K194" t="n">
-        <v>-5.882352941176594</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L194" t="n">
         <v>4.362</v>
@@ -10173,7 +10195,7 @@
         <v>1.580000000000018</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L195" t="n">
         <v>4.359</v>
@@ -10224,7 +10246,7 @@
         <v>1.590000000000018</v>
       </c>
       <c r="K196" t="n">
-        <v>-3.030303030302965</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L196" t="n">
         <v>4.355</v>
@@ -10275,7 +10297,7 @@
         <v>1.590000000000018</v>
       </c>
       <c r="K197" t="n">
-        <v>-13.33333333333335</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>4.352</v>
@@ -10326,7 +10348,7 @@
         <v>1.600000000000017</v>
       </c>
       <c r="K198" t="n">
-        <v>3.70370370370363</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L198" t="n">
         <v>4.353</v>
@@ -10377,7 +10399,7 @@
         <v>1.610000000000018</v>
       </c>
       <c r="K199" t="n">
-        <v>-3.999999999999915</v>
+        <v>-24.99999999999945</v>
       </c>
       <c r="L199" t="n">
         <v>4.351</v>
@@ -10428,7 +10450,7 @@
         <v>1.610000000000018</v>
       </c>
       <c r="K200" t="n">
-        <v>9.09090909090931</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L200" t="n">
         <v>4.348999999999999</v>
@@ -10479,7 +10501,7 @@
         <v>1.610000000000018</v>
       </c>
       <c r="K201" t="n">
-        <v>-5.263157894736744</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L201" t="n">
         <v>4.35</v>
@@ -10530,7 +10552,7 @@
         <v>1.620000000000018</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L202" t="n">
         <v>4.351999999999999</v>
@@ -10581,7 +10603,7 @@
         <v>1.630000000000018</v>
       </c>
       <c r="K203" t="n">
-        <v>-4.761904761904681</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L203" t="n">
         <v>4.353999999999999</v>
@@ -10632,7 +10654,7 @@
         <v>1.650000000000017</v>
       </c>
       <c r="K204" t="n">
-        <v>9.090909090908944</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L204" t="n">
         <v>4.356999999999999</v>
@@ -10683,7 +10705,7 @@
         <v>1.650000000000017</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L205" t="n">
         <v>4.359999999999999</v>
@@ -10734,7 +10756,7 @@
         <v>1.670000000000018</v>
       </c>
       <c r="K206" t="n">
-        <v>9.09090909090931</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L206" t="n">
         <v>4.366</v>
@@ -10785,7 +10807,7 @@
         <v>1.680000000000018</v>
       </c>
       <c r="K207" t="n">
-        <v>9.09090909090887</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L207" t="n">
         <v>4.371</v>
@@ -10836,7 +10858,7 @@
         <v>1.680000000000018</v>
       </c>
       <c r="K208" t="n">
-        <v>26.31578947368406</v>
+        <v>42.85714285714177</v>
       </c>
       <c r="L208" t="n">
         <v>4.374999999999999</v>
@@ -10887,7 +10909,7 @@
         <v>1.680000000000018</v>
       </c>
       <c r="K209" t="n">
-        <v>6.666666666666508</v>
+        <v>42.85714285714177</v>
       </c>
       <c r="L209" t="n">
         <v>4.377999999999999</v>
@@ -10938,7 +10960,7 @@
         <v>1.680000000000018</v>
       </c>
       <c r="K210" t="n">
-        <v>6.666666666666508</v>
+        <v>42.85714285714177</v>
       </c>
       <c r="L210" t="n">
         <v>4.380999999999999</v>
@@ -10989,7 +11011,7 @@
         <v>1.680000000000018</v>
       </c>
       <c r="K211" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L211" t="n">
         <v>4.383999999999999</v>
@@ -11040,7 +11062,7 @@
         <v>1.680000000000018</v>
       </c>
       <c r="K212" t="n">
-        <v>33.33333333333333</v>
+        <v>59.99999999999787</v>
       </c>
       <c r="L212" t="n">
         <v>4.386</v>
@@ -11091,7 +11113,7 @@
         <v>1.680000000000018</v>
       </c>
       <c r="K213" t="n">
-        <v>45.45454545454516</v>
+        <v>33.33333333333136</v>
       </c>
       <c r="L213" t="n">
         <v>4.389</v>
@@ -11142,7 +11164,7 @@
         <v>1.680000000000018</v>
       </c>
       <c r="K214" t="n">
-        <v>39.99999999999982</v>
+        <v>33.33333333333136</v>
       </c>
       <c r="L214" t="n">
         <v>4.39</v>
@@ -11193,7 +11215,7 @@
         <v>1.680000000000018</v>
       </c>
       <c r="K215" t="n">
-        <v>39.99999999999982</v>
+        <v>-100</v>
       </c>
       <c r="L215" t="n">
         <v>4.391</v>
@@ -11243,9 +11265,7 @@
       <c r="J216" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K216" t="n">
-        <v>55.5555555555549</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>4.39</v>
       </c>
@@ -11294,9 +11314,7 @@
       <c r="J217" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K217" t="n">
-        <v>55.5555555555549</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>4.39</v>
       </c>
@@ -11345,9 +11363,7 @@
       <c r="J218" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K218" t="n">
-        <v>49.99999999999945</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>4.39</v>
       </c>
@@ -11396,9 +11412,7 @@
       <c r="J219" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K219" t="n">
-        <v>42.85714285714177</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>4.39</v>
       </c>
@@ -11447,9 +11461,7 @@
       <c r="J220" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K220" t="n">
-        <v>42.85714285714177</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>4.39</v>
       </c>
@@ -11498,9 +11510,7 @@
       <c r="J221" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K221" t="n">
-        <v>42.85714285714177</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>4.39</v>
       </c>
@@ -11549,9 +11559,7 @@
       <c r="J222" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K222" t="n">
-        <v>33.33333333333235</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>4.39</v>
       </c>
@@ -11600,9 +11608,7 @@
       <c r="J223" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K223" t="n">
-        <v>59.99999999999787</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>4.39</v>
       </c>
@@ -11651,9 +11657,7 @@
       <c r="J224" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K224" t="n">
-        <v>33.33333333333136</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>4.39</v>
       </c>
@@ -11702,9 +11706,7 @@
       <c r="J225" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K225" t="n">
-        <v>33.33333333333136</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>4.39</v>
       </c>
@@ -11753,9 +11755,7 @@
       <c r="J226" t="n">
         <v>1.680000000000018</v>
       </c>
-      <c r="K226" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>4.39</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>1.710000000000018</v>
       </c>
       <c r="K240" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>4.388</v>
@@ -12511,7 +12511,7 @@
         <v>1.710000000000018</v>
       </c>
       <c r="K241" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L241" t="n">
         <v>4.388</v>
@@ -12562,7 +12562,7 @@
         <v>1.710000000000018</v>
       </c>
       <c r="K242" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L242" t="n">
         <v>4.387</v>
@@ -12613,7 +12613,7 @@
         <v>1.710000000000018</v>
       </c>
       <c r="K243" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L243" t="n">
         <v>4.386000000000001</v>
@@ -12919,7 +12919,7 @@
         <v>1.720000000000018</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L249" t="n">
         <v>4.386000000000001</v>
@@ -13021,7 +13021,7 @@
         <v>1.760000000000018</v>
       </c>
       <c r="K251" t="n">
-        <v>-42.85714285714358</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L251" t="n">
         <v>4.382</v>
@@ -13072,7 +13072,7 @@
         <v>1.770000000000018</v>
       </c>
       <c r="K252" t="n">
-        <v>-42.85714285714177</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L252" t="n">
         <v>4.38</v>
@@ -13123,7 +13123,7 @@
         <v>1.770000000000018</v>
       </c>
       <c r="K253" t="n">
-        <v>-42.85714285714177</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L253" t="n">
         <v>4.377999999999999</v>
@@ -13174,7 +13174,7 @@
         <v>1.780000000000019</v>
       </c>
       <c r="K254" t="n">
-        <v>-49.99999999999945</v>
+        <v>-66.66666666666518</v>
       </c>
       <c r="L254" t="n">
         <v>4.374</v>
@@ -13225,7 +13225,7 @@
         <v>1.79000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>-33.33333333333201</v>
+        <v>-42.85714285714069</v>
       </c>
       <c r="L255" t="n">
         <v>4.371</v>
@@ -13276,7 +13276,7 @@
         <v>1.80000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>-39.99999999999911</v>
+        <v>-49.99999999999834</v>
       </c>
       <c r="L256" t="n">
         <v>4.366999999999999</v>
@@ -13327,7 +13327,7 @@
         <v>1.81000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>-45.45454545454442</v>
+        <v>-55.5555555555538</v>
       </c>
       <c r="L257" t="n">
         <v>4.361999999999999</v>
@@ -13378,7 +13378,7 @@
         <v>1.81000000000002</v>
       </c>
       <c r="K258" t="n">
-        <v>-45.45454545454442</v>
+        <v>-55.5555555555538</v>
       </c>
       <c r="L258" t="n">
         <v>4.356999999999999</v>
@@ -13429,7 +13429,7 @@
         <v>1.81000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>-45.45454545454442</v>
+        <v>-42.8571428571414</v>
       </c>
       <c r="L259" t="n">
         <v>4.351999999999999</v>
@@ -13480,7 +13480,7 @@
         <v>1.81000000000002</v>
       </c>
       <c r="K260" t="n">
-        <v>-39.99999999999911</v>
+        <v>-19.99999999999858</v>
       </c>
       <c r="L260" t="n">
         <v>4.349</v>
@@ -13531,7 +13531,7 @@
         <v>1.81000000000002</v>
       </c>
       <c r="K261" t="n">
-        <v>-39.99999999999911</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L261" t="n">
         <v>4.348</v>
@@ -13582,7 +13582,7 @@
         <v>1.81000000000002</v>
       </c>
       <c r="K262" t="n">
-        <v>-39.99999999999911</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L262" t="n">
         <v>4.345999999999999</v>
@@ -13633,7 +13633,7 @@
         <v>1.81000000000002</v>
       </c>
       <c r="K263" t="n">
-        <v>-39.99999999999911</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L263" t="n">
         <v>4.343999999999999</v>
@@ -13684,7 +13684,7 @@
         <v>1.81000000000002</v>
       </c>
       <c r="K264" t="n">
-        <v>-55.5555555555538</v>
+        <v>-100</v>
       </c>
       <c r="L264" t="n">
         <v>4.343</v>
@@ -13735,7 +13735,7 @@
         <v>1.81000000000002</v>
       </c>
       <c r="K265" t="n">
-        <v>-55.5555555555538</v>
+        <v>-100</v>
       </c>
       <c r="L265" t="n">
         <v>4.340999999999999</v>
@@ -13785,9 +13785,7 @@
       <c r="J266" t="n">
         <v>1.81000000000002</v>
       </c>
-      <c r="K266" t="n">
-        <v>-55.5555555555538</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>4.34</v>
       </c>
@@ -13836,9 +13834,7 @@
       <c r="J267" t="n">
         <v>1.81000000000002</v>
       </c>
-      <c r="K267" t="n">
-        <v>-55.5555555555538</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>4.339999999999999</v>
       </c>
@@ -13887,9 +13883,7 @@
       <c r="J268" t="n">
         <v>1.81000000000002</v>
       </c>
-      <c r="K268" t="n">
-        <v>-55.5555555555538</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>4.339999999999999</v>
       </c>
@@ -13938,9 +13932,7 @@
       <c r="J269" t="n">
         <v>1.81000000000002</v>
       </c>
-      <c r="K269" t="n">
-        <v>-55.5555555555538</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>4.339999999999999</v>
       </c>
@@ -13989,9 +13981,7 @@
       <c r="J270" t="n">
         <v>1.81000000000002</v>
       </c>
-      <c r="K270" t="n">
-        <v>-42.8571428571414</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>4.339999999999999</v>
       </c>
@@ -14041,7 +14031,7 @@
         <v>1.82000000000002</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L271" t="n">
         <v>4.340999999999999</v>
@@ -14092,7 +14082,7 @@
         <v>1.82000000000002</v>
       </c>
       <c r="K272" t="n">
-        <v>-20.00000000000071</v>
+        <v>100</v>
       </c>
       <c r="L272" t="n">
         <v>4.342000000000001</v>
@@ -14143,7 +14133,7 @@
         <v>1.82000000000002</v>
       </c>
       <c r="K273" t="n">
-        <v>-20.00000000000071</v>
+        <v>100</v>
       </c>
       <c r="L273" t="n">
         <v>4.343000000000001</v>
@@ -14194,7 +14184,7 @@
         <v>1.82000000000002</v>
       </c>
       <c r="K274" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L274" t="n">
         <v>4.344000000000001</v>
@@ -14245,7 +14235,7 @@
         <v>1.83000000000002</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L275" t="n">
         <v>4.346000000000001</v>
@@ -14296,7 +14286,7 @@
         <v>1.84000000000002</v>
       </c>
       <c r="K276" t="n">
-        <v>50.00000000000111</v>
+        <v>100</v>
       </c>
       <c r="L276" t="n">
         <v>4.349000000000001</v>
@@ -14500,7 +14490,7 @@
         <v>1.870000000000021</v>
       </c>
       <c r="K280" t="n">
-        <v>33.33333333333333</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L280" t="n">
         <v>4.355000000000001</v>
@@ -14551,7 +14541,7 @@
         <v>1.880000000000022</v>
       </c>
       <c r="K281" t="n">
-        <v>14.28571428571356</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>4.355000000000001</v>
@@ -14602,7 +14592,7 @@
         <v>1.880000000000022</v>
       </c>
       <c r="K282" t="n">
-        <v>14.28571428571356</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>4.355000000000001</v>
@@ -14653,7 +14643,7 @@
         <v>1.890000000000023</v>
       </c>
       <c r="K283" t="n">
-        <v>24.99999999999972</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L283" t="n">
         <v>4.356000000000001</v>
@@ -14704,7 +14694,7 @@
         <v>1.890000000000023</v>
       </c>
       <c r="K284" t="n">
-        <v>24.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>4.357000000000001</v>
@@ -14755,7 +14745,7 @@
         <v>1.890000000000023</v>
       </c>
       <c r="K285" t="n">
-        <v>24.99999999999972</v>
+        <v>-19.99999999999858</v>
       </c>
       <c r="L285" t="n">
         <v>4.357000000000001</v>
@@ -14806,7 +14796,7 @@
         <v>1.890000000000023</v>
       </c>
       <c r="K286" t="n">
-        <v>24.99999999999972</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>4.356000000000001</v>
@@ -14857,7 +14847,7 @@
         <v>1.900000000000023</v>
       </c>
       <c r="K287" t="n">
-        <v>11.11111111111045</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>4.356000000000001</v>
@@ -14908,7 +14898,7 @@
         <v>1.900000000000023</v>
       </c>
       <c r="K288" t="n">
-        <v>11.11111111111045</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>4.356000000000001</v>
@@ -14959,7 +14949,7 @@
         <v>1.910000000000024</v>
       </c>
       <c r="K289" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>4.356000000000001</v>
@@ -15010,7 +15000,7 @@
         <v>1.910000000000024</v>
       </c>
       <c r="K290" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L290" t="n">
         <v>4.356000000000001</v>
@@ -15112,7 +15102,7 @@
         <v>1.930000000000025</v>
       </c>
       <c r="K292" t="n">
-        <v>9.090909090909239</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>4.357000000000001</v>
@@ -15163,7 +15153,7 @@
         <v>1.940000000000026</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L293" t="n">
         <v>4.356000000000001</v>
@@ -15214,7 +15204,7 @@
         <v>1.940000000000026</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L294" t="n">
         <v>4.355000000000001</v>
@@ -15265,7 +15255,7 @@
         <v>1.940000000000026</v>
       </c>
       <c r="K295" t="n">
-        <v>-9.090909090909239</v>
+        <v>-20</v>
       </c>
       <c r="L295" t="n">
         <v>4.354000000000001</v>
@@ -15316,7 +15306,7 @@
         <v>1.950000000000027</v>
       </c>
       <c r="K296" t="n">
-        <v>-9.090909090908356</v>
+        <v>20</v>
       </c>
       <c r="L296" t="n">
         <v>4.354000000000001</v>
@@ -15418,7 +15408,7 @@
         <v>1.960000000000027</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L298" t="n">
         <v>4.354000000000001</v>
@@ -15469,7 +15459,7 @@
         <v>1.960000000000027</v>
       </c>
       <c r="K299" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L299" t="n">
         <v>4.353000000000002</v>
@@ -15520,7 +15510,7 @@
         <v>1.960000000000027</v>
       </c>
       <c r="K300" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>4.352000000000002</v>
@@ -15571,7 +15561,7 @@
         <v>1.970000000000028</v>
       </c>
       <c r="K301" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>4.353000000000002</v>
@@ -15622,7 +15612,7 @@
         <v>1.970000000000028</v>
       </c>
       <c r="K302" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L302" t="n">
         <v>4.353000000000002</v>
@@ -15673,7 +15663,7 @@
         <v>1.990000000000029</v>
       </c>
       <c r="K303" t="n">
-        <v>-19.99999999999929</v>
+        <v>-19.99999999999858</v>
       </c>
       <c r="L303" t="n">
         <v>4.352000000000002</v>
@@ -15724,7 +15714,7 @@
         <v>2.000000000000028</v>
       </c>
       <c r="K304" t="n">
-        <v>-9.090909090909239</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>4.352000000000002</v>
@@ -15826,7 +15816,7 @@
         <v>2.03000000000003</v>
       </c>
       <c r="K306" t="n">
-        <v>-14.28571428571392</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L306" t="n">
         <v>4.351000000000002</v>
@@ -15877,7 +15867,7 @@
         <v>2.040000000000029</v>
       </c>
       <c r="K307" t="n">
-        <v>-14.28571428571338</v>
+        <v>-24.99999999999889</v>
       </c>
       <c r="L307" t="n">
         <v>4.349000000000002</v>
@@ -15928,7 +15918,7 @@
         <v>2.040000000000029</v>
       </c>
       <c r="K308" t="n">
-        <v>-14.28571428571338</v>
+        <v>-24.99999999999889</v>
       </c>
       <c r="L308" t="n">
         <v>4.347000000000001</v>
@@ -15979,7 +15969,7 @@
         <v>2.07000000000003</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>9.09090909090953</v>
       </c>
       <c r="L309" t="n">
         <v>4.348000000000001</v>
@@ -16030,7 +16020,7 @@
         <v>2.080000000000029</v>
       </c>
       <c r="K310" t="n">
-        <v>5.882352941176163</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L310" t="n">
         <v>4.350000000000001</v>
@@ -16081,7 +16071,7 @@
         <v>2.11000000000003</v>
       </c>
       <c r="K311" t="n">
-        <v>-5.263157894736596</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L311" t="n">
         <v>4.348000000000001</v>
@@ -16132,7 +16122,7 @@
         <v>2.120000000000029</v>
       </c>
       <c r="K312" t="n">
-        <v>-15.78947368421033</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L312" t="n">
         <v>4.345000000000001</v>
@@ -16183,7 +16173,7 @@
         <v>2.130000000000029</v>
       </c>
       <c r="K313" t="n">
-        <v>-15.78947368420994</v>
+        <v>-23.07692307692244</v>
       </c>
       <c r="L313" t="n">
         <v>4.343000000000001</v>
@@ -16234,7 +16224,7 @@
         <v>2.140000000000029</v>
       </c>
       <c r="K314" t="n">
-        <v>-9.999999999999645</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L314" t="n">
         <v>4.341</v>
@@ -16285,7 +16275,7 @@
         <v>2.140000000000029</v>
       </c>
       <c r="K315" t="n">
-        <v>-9.999999999999645</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L315" t="n">
         <v>4.338</v>
@@ -16336,7 +16326,7 @@
         <v>2.170000000000029</v>
       </c>
       <c r="K316" t="n">
-        <v>0</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L316" t="n">
         <v>4.340000000000001</v>
@@ -16387,7 +16377,7 @@
         <v>2.200000000000029</v>
       </c>
       <c r="K317" t="n">
-        <v>-8.333333333333087</v>
+        <v>0</v>
       </c>
       <c r="L317" t="n">
         <v>4.340000000000001</v>
@@ -16438,7 +16428,7 @@
         <v>2.220000000000029</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>-6.666666666667139</v>
       </c>
       <c r="L318" t="n">
         <v>4.342000000000001</v>
@@ -16489,7 +16479,7 @@
         <v>2.250000000000028</v>
       </c>
       <c r="K319" t="n">
-        <v>-10.34482758620664</v>
+        <v>-29.41176470588242</v>
       </c>
       <c r="L319" t="n">
         <v>4.338000000000001</v>
@@ -16540,7 +16530,7 @@
         <v>2.250000000000028</v>
       </c>
       <c r="K320" t="n">
-        <v>-10.34482758620664</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L320" t="n">
         <v>4.333000000000001</v>
@@ -16591,7 +16581,7 @@
         <v>2.250000000000028</v>
       </c>
       <c r="K321" t="n">
-        <v>-14.28571428571428</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L321" t="n">
         <v>4.331000000000001</v>
@@ -16642,7 +16632,7 @@
         <v>2.260000000000028</v>
       </c>
       <c r="K322" t="n">
-        <v>-10.34482758620698</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L322" t="n">
         <v>4.331000000000001</v>
@@ -16693,7 +16683,7 @@
         <v>2.270000000000028</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L323" t="n">
         <v>4.333000000000002</v>
@@ -16744,7 +16734,7 @@
         <v>2.290000000000028</v>
       </c>
       <c r="K324" t="n">
-        <v>3.448275862069198</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L324" t="n">
         <v>4.336000000000002</v>
@@ -16795,7 +16785,7 @@
         <v>2.320000000000029</v>
       </c>
       <c r="K325" t="n">
-        <v>-9.677419354838802</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L325" t="n">
         <v>4.336000000000002</v>
@@ -16846,7 +16836,7 @@
         <v>2.330000000000028</v>
       </c>
       <c r="K326" t="n">
-        <v>-6.666666666666549</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L326" t="n">
         <v>4.332000000000003</v>
@@ -16897,7 +16887,7 @@
         <v>2.340000000000028</v>
       </c>
       <c r="K327" t="n">
-        <v>0</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L327" t="n">
         <v>4.332000000000003</v>
@@ -16948,7 +16938,7 @@
         <v>2.360000000000028</v>
       </c>
       <c r="K328" t="n">
-        <v>6.249999999999896</v>
+        <v>27.27272727272683</v>
       </c>
       <c r="L328" t="n">
         <v>4.332000000000003</v>
@@ -16999,7 +16989,7 @@
         <v>2.370000000000028</v>
       </c>
       <c r="K329" t="n">
-        <v>-6.666666666666863</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L329" t="n">
         <v>4.334000000000002</v>
@@ -17050,7 +17040,7 @@
         <v>2.370000000000028</v>
       </c>
       <c r="K330" t="n">
-        <v>-10.34482758620704</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L330" t="n">
         <v>4.336000000000002</v>
@@ -17101,7 +17091,7 @@
         <v>2.380000000000027</v>
       </c>
       <c r="K331" t="n">
-        <v>3.703703703703655</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L331" t="n">
         <v>4.339000000000002</v>
@@ -17152,7 +17142,7 @@
         <v>2.400000000000027</v>
       </c>
       <c r="K332" t="n">
-        <v>0</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L332" t="n">
         <v>4.339000000000002</v>
@@ -17203,7 +17193,7 @@
         <v>2.460000000000027</v>
       </c>
       <c r="K333" t="n">
-        <v>21.2121212121212</v>
+        <v>17.64705882352923</v>
       </c>
       <c r="L333" t="n">
         <v>4.344000000000003</v>
@@ -17305,7 +17295,7 @@
         <v>2.530000000000026</v>
       </c>
       <c r="K335" t="n">
-        <v>2.564102564102529</v>
+        <v>9.999999999999911</v>
       </c>
       <c r="L335" t="n">
         <v>4.342000000000003</v>
@@ -17356,7 +17346,7 @@
         <v>2.540000000000026</v>
       </c>
       <c r="K336" t="n">
-        <v>-8.108108108108251</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>4.343000000000003</v>
@@ -17407,7 +17397,7 @@
         <v>2.550000000000026</v>
       </c>
       <c r="K337" t="n">
-        <v>2.857142857142828</v>
+        <v>-5.263157894736794</v>
       </c>
       <c r="L337" t="n">
         <v>4.344000000000003</v>
@@ -17458,7 +17448,7 @@
         <v>2.570000000000025</v>
       </c>
       <c r="K338" t="n">
-        <v>-8.571428571428484</v>
+        <v>-9.999999999999911</v>
       </c>
       <c r="L338" t="n">
         <v>4.341000000000003</v>
@@ -17509,7 +17499,7 @@
         <v>2.570000000000025</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>-9.999999999999911</v>
       </c>
       <c r="L339" t="n">
         <v>4.339000000000003</v>
@@ -17560,7 +17550,7 @@
         <v>2.580000000000025</v>
       </c>
       <c r="K340" t="n">
-        <v>3.030303030302998</v>
+        <v>-9.999999999999911</v>
       </c>
       <c r="L340" t="n">
         <v>4.338000000000003</v>
@@ -17611,7 +17601,7 @@
         <v>2.580000000000025</v>
       </c>
       <c r="K341" t="n">
-        <v>3.030303030302998</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>4.336000000000002</v>
@@ -17662,7 +17652,7 @@
         <v>2.590000000000025</v>
       </c>
       <c r="K342" t="n">
-        <v>3.030303030302998</v>
+        <v>-38.46153846153888</v>
       </c>
       <c r="L342" t="n">
         <v>4.337000000000002</v>
@@ -17713,7 +17703,7 @@
         <v>2.590000000000025</v>
       </c>
       <c r="K343" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L343" t="n">
         <v>4.332000000000003</v>
@@ -17764,7 +17754,7 @@
         <v>2.600000000000025</v>
       </c>
       <c r="K344" t="n">
-        <v>-9.677419354838914</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L344" t="n">
         <v>4.332000000000003</v>
@@ -17866,7 +17856,7 @@
         <v>2.600000000000025</v>
       </c>
       <c r="K346" t="n">
-        <v>3.703703703703679</v>
+        <v>-20</v>
       </c>
       <c r="L346" t="n">
         <v>4.331000000000001</v>
@@ -17917,7 +17907,7 @@
         <v>2.600000000000025</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L347" t="n">
         <v>4.330000000000001</v>
@@ -17968,7 +17958,7 @@
         <v>2.600000000000025</v>
       </c>
       <c r="K348" t="n">
-        <v>-8.333333333333272</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>4.331000000000001</v>
@@ -18019,7 +18009,7 @@
         <v>2.600000000000025</v>
       </c>
       <c r="K349" t="n">
-        <v>-4.347826086956489</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
         <v>4.332000000000001</v>
@@ -18070,7 +18060,7 @@
         <v>2.600000000000025</v>
       </c>
       <c r="K350" t="n">
-        <v>-4.347826086956489</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>4.332000000000001</v>
@@ -18121,7 +18111,7 @@
         <v>2.600000000000025</v>
       </c>
       <c r="K351" t="n">
-        <v>-9.090909090909017</v>
+        <v>-100</v>
       </c>
       <c r="L351" t="n">
         <v>4.332000000000001</v>
@@ -18172,7 +18162,7 @@
         <v>2.600000000000025</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L352" t="n">
         <v>4.331</v>
@@ -18222,9 +18212,7 @@
       <c r="J353" t="n">
         <v>2.600000000000025</v>
       </c>
-      <c r="K353" t="n">
-        <v>-42.85714285714322</v>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>4.33</v>
       </c>
@@ -18273,9 +18261,7 @@
       <c r="J354" t="n">
         <v>2.600000000000025</v>
       </c>
-      <c r="K354" t="n">
-        <v>0</v>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>4.33</v>
       </c>
@@ -18325,7 +18311,7 @@
         <v>2.620000000000024</v>
       </c>
       <c r="K355" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L355" t="n">
         <v>4.332</v>
@@ -18376,7 +18362,7 @@
         <v>2.630000000000025</v>
       </c>
       <c r="K356" t="n">
-        <v>33.33333333333399</v>
+        <v>100</v>
       </c>
       <c r="L356" t="n">
         <v>4.335</v>
@@ -18427,7 +18413,7 @@
         <v>2.640000000000025</v>
       </c>
       <c r="K357" t="n">
-        <v>11.11111111111089</v>
+        <v>49.99999999999778</v>
       </c>
       <c r="L357" t="n">
         <v>4.337000000000001</v>
@@ -18478,7 +18464,7 @@
         <v>2.640000000000025</v>
       </c>
       <c r="K358" t="n">
-        <v>42.85714285714177</v>
+        <v>49.99999999999778</v>
       </c>
       <c r="L358" t="n">
         <v>4.339</v>
@@ -18529,7 +18515,7 @@
         <v>2.650000000000025</v>
       </c>
       <c r="K359" t="n">
-        <v>24.99999999999945</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L359" t="n">
         <v>4.340000000000001</v>
@@ -18580,7 +18566,7 @@
         <v>2.650000000000025</v>
       </c>
       <c r="K360" t="n">
-        <v>14.28571428571392</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L360" t="n">
         <v>4.341000000000001</v>
@@ -18682,7 +18668,7 @@
         <v>2.660000000000025</v>
       </c>
       <c r="K362" t="n">
-        <v>-14.28571428571392</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>4.341000000000001</v>
@@ -18733,7 +18719,7 @@
         <v>2.660000000000025</v>
       </c>
       <c r="K363" t="n">
-        <v>-14.28571428571392</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>4.341000000000001</v>
@@ -18784,7 +18770,7 @@
         <v>2.670000000000025</v>
       </c>
       <c r="K364" t="n">
-        <v>-14.28571428571392</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L364" t="n">
         <v>4.340000000000002</v>
@@ -18835,7 +18821,7 @@
         <v>2.670000000000025</v>
       </c>
       <c r="K365" t="n">
-        <v>-14.28571428571392</v>
+        <v>-100</v>
       </c>
       <c r="L365" t="n">
         <v>4.337000000000002</v>
@@ -18886,7 +18872,7 @@
         <v>2.670000000000025</v>
       </c>
       <c r="K366" t="n">
-        <v>-14.28571428571392</v>
+        <v>-100</v>
       </c>
       <c r="L366" t="n">
         <v>4.333000000000001</v>
@@ -18937,7 +18923,7 @@
         <v>2.670000000000025</v>
       </c>
       <c r="K367" t="n">
-        <v>-14.28571428571392</v>
+        <v>-100</v>
       </c>
       <c r="L367" t="n">
         <v>4.330000000000001</v>
@@ -18988,7 +18974,7 @@
         <v>2.670000000000025</v>
       </c>
       <c r="K368" t="n">
-        <v>-14.28571428571392</v>
+        <v>-100</v>
       </c>
       <c r="L368" t="n">
         <v>4.327000000000001</v>
@@ -19039,7 +19025,7 @@
         <v>2.670000000000025</v>
       </c>
       <c r="K369" t="n">
-        <v>-14.28571428571392</v>
+        <v>-100</v>
       </c>
       <c r="L369" t="n">
         <v>4.325000000000001</v>
@@ -19141,7 +19127,7 @@
         <v>2.690000000000024</v>
       </c>
       <c r="K371" t="n">
-        <v>-11.11111111111089</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L371" t="n">
         <v>4.323000000000001</v>
@@ -19192,7 +19178,7 @@
         <v>2.690000000000024</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.11111111111089</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L372" t="n">
         <v>4.322000000000001</v>
@@ -19243,7 +19229,7 @@
         <v>2.730000000000024</v>
       </c>
       <c r="K373" t="n">
-        <v>23.07692307692329</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L373" t="n">
         <v>4.325000000000001</v>
@@ -19294,7 +19280,7 @@
         <v>2.760000000000025</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L374" t="n">
         <v>4.326000000000001</v>
@@ -19345,7 +19331,7 @@
         <v>2.760000000000025</v>
       </c>
       <c r="K375" t="n">
-        <v>-14.28571428571392</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L375" t="n">
         <v>4.327000000000001</v>
@@ -19396,7 +19382,7 @@
         <v>2.770000000000024</v>
       </c>
       <c r="K376" t="n">
-        <v>-28.57142857142867</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>4.327000000000001</v>
@@ -19447,7 +19433,7 @@
         <v>2.800000000000024</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="L377" t="n">
         <v>4.330000000000001</v>
@@ -19498,7 +19484,7 @@
         <v>2.830000000000023</v>
       </c>
       <c r="K378" t="n">
-        <v>-15.78947368421038</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>4.330000000000001</v>
@@ -19549,7 +19535,7 @@
         <v>2.850000000000023</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>5.88235294117641</v>
       </c>
       <c r="L379" t="n">
         <v>4.332000000000002</v>
@@ -19600,7 +19586,7 @@
         <v>2.870000000000022</v>
       </c>
       <c r="K380" t="n">
-        <v>-9.090909090909017</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>4.331000000000001</v>
@@ -19651,7 +19637,7 @@
         <v>2.870000000000022</v>
       </c>
       <c r="K381" t="n">
-        <v>-4.761904761904721</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>4.331000000000001</v>
@@ -19702,7 +19688,7 @@
         <v>2.900000000000022</v>
       </c>
       <c r="K382" t="n">
-        <v>8.333333333333272</v>
+        <v>-5.882352941176962</v>
       </c>
       <c r="L382" t="n">
         <v>4.334000000000001</v>
@@ -19804,7 +19790,7 @@
         <v>2.930000000000021</v>
       </c>
       <c r="K384" t="n">
-        <v>7.69230769230764</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L384" t="n">
         <v>4.332000000000003</v>
@@ -19855,7 +19841,7 @@
         <v>2.940000000000021</v>
       </c>
       <c r="K385" t="n">
-        <v>3.703703703703679</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L385" t="n">
         <v>4.332000000000003</v>
@@ -19906,7 +19892,7 @@
         <v>2.96000000000002</v>
       </c>
       <c r="K386" t="n">
-        <v>10.34482758620683</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>4.335000000000003</v>
@@ -19957,7 +19943,7 @@
         <v>2.98000000000002</v>
       </c>
       <c r="K387" t="n">
-        <v>3.225806451612884</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L387" t="n">
         <v>4.333000000000002</v>
@@ -20008,7 +19994,7 @@
         <v>2.99000000000002</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L388" t="n">
         <v>4.333000000000002</v>
@@ -20059,7 +20045,7 @@
         <v>3.00000000000002</v>
       </c>
       <c r="K389" t="n">
-        <v>3.030303030303014</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L389" t="n">
         <v>4.332000000000003</v>
@@ -20110,7 +20096,7 @@
         <v>3.010000000000019</v>
       </c>
       <c r="K390" t="n">
-        <v>3.030303030303014</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L390" t="n">
         <v>4.334000000000002</v>
@@ -20161,7 +20147,7 @@
         <v>3.020000000000019</v>
       </c>
       <c r="K391" t="n">
-        <v>3.030303030303014</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L391" t="n">
         <v>4.335000000000003</v>
@@ -20212,7 +20198,7 @@
         <v>3.030000000000019</v>
       </c>
       <c r="K392" t="n">
-        <v>5.88235294117644</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L392" t="n">
         <v>4.334000000000002</v>
@@ -20263,7 +20249,7 @@
         <v>3.040000000000019</v>
       </c>
       <c r="K393" t="n">
-        <v>-3.225806451613181</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L393" t="n">
         <v>4.336000000000003</v>
@@ -20314,7 +20300,7 @@
         <v>3.040000000000019</v>
       </c>
       <c r="K394" t="n">
-        <v>7.142857142857142</v>
+        <v>20</v>
       </c>
       <c r="L394" t="n">
         <v>4.337000000000003</v>
@@ -20365,7 +20351,7 @@
         <v>3.070000000000018</v>
       </c>
       <c r="K395" t="n">
-        <v>-3.225806451612903</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L395" t="n">
         <v>4.336000000000004</v>
@@ -20416,7 +20402,7 @@
         <v>3.070000000000018</v>
       </c>
       <c r="K396" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L396" t="n">
         <v>4.333000000000004</v>
@@ -20467,7 +20453,7 @@
         <v>3.100000000000017</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L397" t="n">
         <v>4.335000000000004</v>
@@ -20518,7 +20504,7 @@
         <v>3.130000000000017</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L398" t="n">
         <v>4.335000000000004</v>
@@ -20620,7 +20606,7 @@
         <v>3.170000000000016</v>
       </c>
       <c r="K400" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L400" t="n">
         <v>4.334000000000005</v>
@@ -20671,7 +20657,7 @@
         <v>3.170000000000016</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L401" t="n">
         <v>4.333000000000005</v>
@@ -20722,7 +20708,7 @@
         <v>3.170000000000016</v>
       </c>
       <c r="K402" t="n">
-        <v>-11.11111111111111</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L402" t="n">
         <v>4.331000000000005</v>
@@ -20773,7 +20759,7 @@
         <v>3.180000000000016</v>
       </c>
       <c r="K403" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L403" t="n">
         <v>4.329000000000004</v>
@@ -20824,7 +20810,7 @@
         <v>3.180000000000016</v>
       </c>
       <c r="K404" t="n">
-        <v>-4</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L404" t="n">
         <v>4.327000000000004</v>
@@ -20875,7 +20861,7 @@
         <v>3.180000000000016</v>
       </c>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L405" t="n">
         <v>4.328000000000004</v>
@@ -20926,7 +20912,7 @@
         <v>3.180000000000016</v>
       </c>
       <c r="K406" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L406" t="n">
         <v>4.329000000000003</v>
@@ -20977,7 +20963,7 @@
         <v>3.200000000000015</v>
       </c>
       <c r="K407" t="n">
-        <v>9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L407" t="n">
         <v>4.329000000000003</v>
@@ -21028,7 +21014,7 @@
         <v>3.200000000000015</v>
       </c>
       <c r="K408" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L408" t="n">
         <v>4.332000000000003</v>
@@ -21079,7 +21065,7 @@
         <v>3.200000000000015</v>
       </c>
       <c r="K409" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L409" t="n">
         <v>4.333000000000004</v>
@@ -21130,7 +21116,7 @@
         <v>3.210000000000015</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L410" t="n">
         <v>4.335000000000004</v>
@@ -21181,7 +21167,7 @@
         <v>3.220000000000015</v>
       </c>
       <c r="K411" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L411" t="n">
         <v>4.338000000000005</v>
@@ -21232,7 +21218,7 @@
         <v>3.240000000000014</v>
       </c>
       <c r="K412" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>4.339000000000004</v>
@@ -21385,7 +21371,7 @@
         <v>3.250000000000014</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L415" t="n">
         <v>4.336000000000005</v>
@@ -21436,7 +21422,7 @@
         <v>3.250000000000014</v>
       </c>
       <c r="K416" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L416" t="n">
         <v>4.335000000000005</v>
@@ -21487,7 +21473,7 @@
         <v>3.250000000000014</v>
       </c>
       <c r="K417" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L417" t="n">
         <v>4.332000000000005</v>
@@ -21538,7 +21524,7 @@
         <v>3.250000000000014</v>
       </c>
       <c r="K418" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L418" t="n">
         <v>4.329000000000005</v>
@@ -21589,7 +21575,7 @@
         <v>3.280000000000014</v>
       </c>
       <c r="K419" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L419" t="n">
         <v>4.329000000000005</v>
@@ -21640,7 +21626,7 @@
         <v>3.280000000000014</v>
       </c>
       <c r="K420" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>4.330000000000005</v>
@@ -21691,7 +21677,7 @@
         <v>3.280000000000014</v>
       </c>
       <c r="K421" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L421" t="n">
         <v>4.330000000000005</v>
@@ -21742,7 +21728,7 @@
         <v>3.300000000000013</v>
       </c>
       <c r="K422" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L422" t="n">
         <v>4.330000000000005</v>
@@ -21793,7 +21779,7 @@
         <v>3.310000000000013</v>
       </c>
       <c r="K423" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>4.330000000000005</v>
@@ -21844,7 +21830,7 @@
         <v>3.330000000000013</v>
       </c>
       <c r="K424" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L424" t="n">
         <v>4.332000000000006</v>
@@ -21895,7 +21881,7 @@
         <v>3.340000000000012</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L425" t="n">
         <v>4.333000000000006</v>
@@ -21946,7 +21932,7 @@
         <v>3.350000000000012</v>
       </c>
       <c r="K426" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L426" t="n">
         <v>4.335000000000006</v>
@@ -21997,7 +21983,7 @@
         <v>3.370000000000012</v>
       </c>
       <c r="K427" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>4.335000000000006</v>
@@ -22048,7 +22034,7 @@
         <v>3.390000000000011</v>
       </c>
       <c r="K428" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L428" t="n">
         <v>4.337000000000005</v>
@@ -22099,7 +22085,7 @@
         <v>3.410000000000011</v>
       </c>
       <c r="K429" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L429" t="n">
         <v>4.334000000000005</v>
@@ -22150,7 +22136,7 @@
         <v>3.44000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L430" t="n">
         <v>4.334000000000005</v>
@@ -22201,7 +22187,7 @@
         <v>3.45000000000001</v>
       </c>
       <c r="K431" t="n">
-        <v>-4.347826086956522</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L431" t="n">
         <v>4.333000000000005</v>
@@ -22252,7 +22238,7 @@
         <v>3.47000000000001</v>
       </c>
       <c r="K432" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>4.332000000000005</v>
@@ -22303,7 +22289,7 @@
         <v>3.480000000000009</v>
       </c>
       <c r="K433" t="n">
-        <v>4.347826086956522</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L433" t="n">
         <v>4.333000000000005</v>
@@ -22354,7 +22340,7 @@
         <v>3.480000000000009</v>
       </c>
       <c r="K434" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>4.332000000000005</v>
@@ -22405,7 +22391,7 @@
         <v>3.490000000000009</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L435" t="n">
         <v>4.331000000000005</v>
@@ -22456,7 +22442,7 @@
         <v>3.520000000000008</v>
       </c>
       <c r="K436" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L436" t="n">
         <v>4.332000000000005</v>
@@ -22507,7 +22493,7 @@
         <v>3.530000000000008</v>
       </c>
       <c r="K437" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>4.334000000000005</v>
@@ -22558,7 +22544,7 @@
         <v>3.530000000000008</v>
       </c>
       <c r="K438" t="n">
-        <v>7.142857142857142</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L438" t="n">
         <v>4.334000000000005</v>
@@ -22609,7 +22595,7 @@
         <v>3.550000000000008</v>
       </c>
       <c r="K439" t="n">
-        <v>-11.11111111111111</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L439" t="n">
         <v>4.334000000000005</v>
@@ -22660,7 +22646,7 @@
         <v>3.550000000000008</v>
       </c>
       <c r="K440" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L440" t="n">
         <v>4.331000000000005</v>
@@ -22711,7 +22697,7 @@
         <v>3.580000000000007</v>
       </c>
       <c r="K441" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L441" t="n">
         <v>4.332000000000005</v>
@@ -22762,7 +22748,7 @@
         <v>3.580000000000007</v>
       </c>
       <c r="K442" t="n">
-        <v>7.142857142857142</v>
+        <v>20</v>
       </c>
       <c r="L442" t="n">
         <v>4.335000000000005</v>
@@ -22813,7 +22799,7 @@
         <v>3.580000000000007</v>
       </c>
       <c r="K443" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L443" t="n">
         <v>4.337000000000005</v>
@@ -22864,7 +22850,7 @@
         <v>3.610000000000007</v>
       </c>
       <c r="K444" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>4.336000000000006</v>
@@ -22915,7 +22901,7 @@
         <v>3.640000000000006</v>
       </c>
       <c r="K445" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L445" t="n">
         <v>4.339000000000006</v>
@@ -22966,7 +22952,7 @@
         <v>3.640000000000006</v>
       </c>
       <c r="K446" t="n">
-        <v>3.448275862068965</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L446" t="n">
         <v>4.339000000000006</v>
@@ -23017,7 +23003,7 @@
         <v>3.650000000000006</v>
       </c>
       <c r="K447" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L447" t="n">
         <v>4.339000000000006</v>
@@ -23068,7 +23054,7 @@
         <v>3.650000000000006</v>
       </c>
       <c r="K448" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L448" t="n">
         <v>4.339000000000006</v>
@@ -23170,7 +23156,7 @@
         <v>3.680000000000005</v>
       </c>
       <c r="K450" t="n">
-        <v>-8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L450" t="n">
         <v>4.340000000000005</v>
@@ -23221,7 +23207,7 @@
         <v>3.690000000000005</v>
       </c>
       <c r="K451" t="n">
-        <v>-8.333333333333332</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L451" t="n">
         <v>4.337000000000005</v>
@@ -23272,7 +23258,7 @@
         <v>3.700000000000005</v>
       </c>
       <c r="K452" t="n">
-        <v>4.347826086956522</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L452" t="n">
         <v>4.335000000000005</v>
@@ -23323,7 +23309,7 @@
         <v>3.720000000000004</v>
       </c>
       <c r="K453" t="n">
-        <v>8.333333333333332</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L453" t="n">
         <v>4.335000000000005</v>
@@ -23374,7 +23360,7 @@
         <v>3.740000000000004</v>
       </c>
       <c r="K454" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L454" t="n">
         <v>4.336000000000005</v>
@@ -23425,7 +23411,7 @@
         <v>3.750000000000004</v>
       </c>
       <c r="K455" t="n">
-        <v>7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L455" t="n">
         <v>4.335000000000004</v>
@@ -23476,7 +23462,7 @@
         <v>3.770000000000003</v>
       </c>
       <c r="K456" t="n">
-        <v>-12</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L456" t="n">
         <v>4.332000000000004</v>
@@ -23578,7 +23564,7 @@
         <v>3.790000000000003</v>
       </c>
       <c r="K458" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L458" t="n">
         <v>4.332000000000003</v>
@@ -23629,7 +23615,7 @@
         <v>3.810000000000002</v>
       </c>
       <c r="K459" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L459" t="n">
         <v>4.332000000000003</v>
@@ -23680,7 +23666,7 @@
         <v>3.820000000000002</v>
       </c>
       <c r="K460" t="n">
-        <v>3.703703703703703</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L460" t="n">
         <v>4.332000000000003</v>
@@ -23731,7 +23717,7 @@
         <v>3.840000000000002</v>
       </c>
       <c r="K461" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L461" t="n">
         <v>4.335000000000004</v>
@@ -23833,7 +23819,7 @@
         <v>3.840000000000002</v>
       </c>
       <c r="K463" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L463" t="n">
         <v>4.337000000000004</v>
@@ -23884,7 +23870,7 @@
         <v>3.850000000000001</v>
       </c>
       <c r="K464" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>4.338000000000004</v>
@@ -23935,7 +23921,7 @@
         <v>3.860000000000001</v>
       </c>
       <c r="K465" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L465" t="n">
         <v>4.339000000000004</v>
@@ -23986,7 +23972,7 @@
         <v>3.860000000000001</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L466" t="n">
         <v>4.342000000000004</v>
@@ -24037,7 +24023,7 @@
         <v>3.860000000000001</v>
       </c>
       <c r="K467" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L467" t="n">
         <v>4.343000000000005</v>
@@ -24088,7 +24074,7 @@
         <v>3.860000000000001</v>
       </c>
       <c r="K468" t="n">
-        <v>4.761904761904762</v>
+        <v>60</v>
       </c>
       <c r="L468" t="n">
         <v>4.344000000000006</v>
@@ -24139,7 +24125,7 @@
         <v>3.860000000000001</v>
       </c>
       <c r="K469" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L469" t="n">
         <v>4.347000000000006</v>
@@ -24190,7 +24176,7 @@
         <v>3.880000000000001</v>
       </c>
       <c r="K470" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L470" t="n">
         <v>4.347000000000006</v>
@@ -24241,7 +24227,7 @@
         <v>3.880000000000001</v>
       </c>
       <c r="K471" t="n">
-        <v>5.263157894736842</v>
+        <v>-50</v>
       </c>
       <c r="L471" t="n">
         <v>4.345000000000005</v>
@@ -24292,7 +24278,7 @@
         <v>3.890000000000001</v>
       </c>
       <c r="K472" t="n">
-        <v>-5.263157894736842</v>
+        <v>-60</v>
       </c>
       <c r="L472" t="n">
         <v>4.342000000000005</v>
@@ -24343,7 +24329,7 @@
         <v>3.890000000000001</v>
       </c>
       <c r="K473" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L473" t="n">
         <v>4.339000000000005</v>
@@ -24394,7 +24380,7 @@
         <v>3.890000000000001</v>
       </c>
       <c r="K474" t="n">
-        <v>-6.666666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L474" t="n">
         <v>4.337000000000005</v>
@@ -24445,7 +24431,7 @@
         <v>3.92</v>
       </c>
       <c r="K475" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L475" t="n">
         <v>4.337000000000005</v>
@@ -24496,7 +24482,7 @@
         <v>3.93</v>
       </c>
       <c r="K476" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L476" t="n">
         <v>4.336000000000005</v>
@@ -24547,7 +24533,7 @@
         <v>3.96</v>
       </c>
       <c r="K477" t="n">
-        <v>-17.64705882352984</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L477" t="n">
         <v>4.332000000000005</v>
@@ -24598,7 +24584,7 @@
         <v>3.970000000000001</v>
       </c>
       <c r="K478" t="n">
-        <v>-11.111111111111</v>
+        <v>-27.27272727272683</v>
       </c>
       <c r="L478" t="n">
         <v>4.329000000000005</v>
@@ -24649,7 +24635,7 @@
         <v>3.98</v>
       </c>
       <c r="K479" t="n">
-        <v>5.88235294117641</v>
+        <v>0</v>
       </c>
       <c r="L479" t="n">
         <v>4.327000000000004</v>
@@ -24700,7 +24686,7 @@
         <v>3.99</v>
       </c>
       <c r="K480" t="n">
-        <v>-5.88235294117641</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L480" t="n">
         <v>4.326000000000005</v>
@@ -24751,7 +24737,7 @@
         <v>4</v>
       </c>
       <c r="K481" t="n">
-        <v>-12.49999999999986</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L481" t="n">
         <v>4.326000000000005</v>
@@ -24802,7 +24788,7 @@
         <v>4.01</v>
       </c>
       <c r="K482" t="n">
-        <v>-5.88235294117641</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L482" t="n">
         <v>4.328000000000005</v>
@@ -24853,7 +24839,7 @@
         <v>4.02</v>
       </c>
       <c r="K483" t="n">
-        <v>-11.111111111111</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L483" t="n">
         <v>4.329000000000005</v>
@@ -24904,7 +24890,7 @@
         <v>4.029999999999999</v>
       </c>
       <c r="K484" t="n">
-        <v>0</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L484" t="n">
         <v>4.331000000000005</v>
@@ -24955,7 +24941,7 @@
         <v>4.029999999999999</v>
       </c>
       <c r="K485" t="n">
-        <v>-5.88235294117641</v>
+        <v>0</v>
       </c>
       <c r="L485" t="n">
         <v>4.330000000000005</v>
@@ -25006,7 +24992,7 @@
         <v>4.039999999999999</v>
       </c>
       <c r="K486" t="n">
-        <v>0</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L486" t="n">
         <v>4.331000000000005</v>
@@ -25057,7 +25043,7 @@
         <v>4.069999999999999</v>
       </c>
       <c r="K487" t="n">
-        <v>-14.28571428571417</v>
+        <v>0</v>
       </c>
       <c r="L487" t="n">
         <v>4.332000000000004</v>
@@ -25108,7 +25094,7 @@
         <v>4.069999999999999</v>
       </c>
       <c r="K488" t="n">
-        <v>-14.28571428571417</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L488" t="n">
         <v>4.332000000000004</v>
@@ -25159,7 +25145,7 @@
         <v>4.079999999999998</v>
       </c>
       <c r="K489" t="n">
-        <v>-9.090909090909017</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L489" t="n">
         <v>4.332000000000004</v>
@@ -25210,7 +25196,7 @@
         <v>4.089999999999998</v>
       </c>
       <c r="K490" t="n">
-        <v>-4.761904761904721</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L490" t="n">
         <v>4.332000000000004</v>
@@ -25261,7 +25247,7 @@
         <v>4.119999999999997</v>
       </c>
       <c r="K491" t="n">
-        <v>8.333333333333272</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L491" t="n">
         <v>4.334000000000005</v>
@@ -25312,7 +25298,7 @@
         <v>4.139999999999997</v>
       </c>
       <c r="K492" t="n">
-        <v>3.999999999999972</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>4.333000000000004</v>
@@ -25363,7 +25349,7 @@
         <v>4.159999999999997</v>
       </c>
       <c r="K493" t="n">
-        <v>11.11111111111104</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L493" t="n">
         <v>4.335000000000004</v>
@@ -25414,7 +25400,7 @@
         <v>4.159999999999997</v>
       </c>
       <c r="K494" t="n">
-        <v>11.11111111111104</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L494" t="n">
         <v>4.336000000000004</v>
@@ -25516,7 +25502,7 @@
         <v>4.159999999999997</v>
       </c>
       <c r="K496" t="n">
-        <v>4.347826086956489</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L496" t="n">
         <v>4.337000000000005</v>
@@ -25567,7 +25553,7 @@
         <v>4.159999999999997</v>
       </c>
       <c r="K497" t="n">
-        <v>20.00000000000036</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L497" t="n">
         <v>4.340000000000005</v>
@@ -25618,7 +25604,7 @@
         <v>4.159999999999997</v>
       </c>
       <c r="K498" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L498" t="n">
         <v>4.343000000000005</v>
@@ -25669,7 +25655,7 @@
         <v>4.159999999999997</v>
       </c>
       <c r="K499" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L499" t="n">
         <v>4.345000000000005</v>
@@ -25720,7 +25706,7 @@
         <v>4.159999999999997</v>
       </c>
       <c r="K500" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>4.348000000000005</v>
@@ -25771,7 +25757,7 @@
         <v>4.159999999999997</v>
       </c>
       <c r="K501" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="L501" t="n">
         <v>4.348000000000005</v>
@@ -25821,9 +25807,7 @@
       <c r="J502" t="n">
         <v>4.159999999999997</v>
       </c>
-      <c r="K502" t="n">
-        <v>6.666666666666667</v>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>4.350000000000006</v>
       </c>
@@ -25873,7 +25857,7 @@
         <v>4.169999999999997</v>
       </c>
       <c r="K503" t="n">
-        <v>20.00000000000047</v>
+        <v>100</v>
       </c>
       <c r="L503" t="n">
         <v>4.351000000000005</v>
@@ -25924,7 +25908,7 @@
         <v>4.229999999999997</v>
       </c>
       <c r="K504" t="n">
-        <v>40.00000000000053</v>
+        <v>100</v>
       </c>
       <c r="L504" t="n">
         <v>4.358000000000006</v>
@@ -25975,7 +25959,7 @@
         <v>4.289999999999997</v>
       </c>
       <c r="K505" t="n">
-        <v>53.84615384615448</v>
+        <v>100</v>
       </c>
       <c r="L505" t="n">
         <v>4.371000000000006</v>
@@ -26026,7 +26010,7 @@
         <v>4.399999999999997</v>
       </c>
       <c r="K506" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L506" t="n">
         <v>4.395000000000005</v>
@@ -26077,7 +26061,7 @@
         <v>4.449999999999997</v>
       </c>
       <c r="K507" t="n">
-        <v>57.89473684210549</v>
+        <v>65.51724137931048</v>
       </c>
       <c r="L507" t="n">
         <v>4.414000000000005</v>
@@ -26128,7 +26112,7 @@
         <v>4.449999999999997</v>
       </c>
       <c r="K508" t="n">
-        <v>57.89473684210549</v>
+        <v>65.51724137931048</v>
       </c>
       <c r="L508" t="n">
         <v>4.433000000000005</v>
@@ -26179,7 +26163,7 @@
         <v>4.489999999999997</v>
       </c>
       <c r="K509" t="n">
-        <v>60.9756097560978</v>
+        <v>69.69696969696982</v>
       </c>
       <c r="L509" t="n">
         <v>4.456000000000005</v>
@@ -26230,7 +26214,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K510" t="n">
-        <v>65.85365853658553</v>
+        <v>70.58823529411774</v>
       </c>
       <c r="L510" t="n">
         <v>4.480000000000005</v>
@@ -26281,7 +26265,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K511" t="n">
-        <v>63.15789473684232</v>
+        <v>70.58823529411774</v>
       </c>
       <c r="L511" t="n">
         <v>4.504000000000004</v>
@@ -26332,7 +26316,7 @@
         <v>4.529999999999997</v>
       </c>
       <c r="K512" t="n">
-        <v>58.97435897435891</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L512" t="n">
         <v>4.525000000000004</v>
@@ -26383,7 +26367,7 @@
         <v>4.559999999999997</v>
       </c>
       <c r="K513" t="n">
-        <v>60</v>
+        <v>51.51515151515148</v>
       </c>
       <c r="L513" t="n">
         <v>4.548000000000004</v>
@@ -26434,7 +26418,7 @@
         <v>4.619999999999997</v>
       </c>
       <c r="K514" t="n">
-        <v>39.13043478260883</v>
+        <v>15.15151515151513</v>
       </c>
       <c r="L514" t="n">
         <v>4.559000000000005</v>
@@ -26485,7 +26469,7 @@
         <v>4.669999999999996</v>
       </c>
       <c r="K515" t="n">
-        <v>25.49019607843154</v>
+        <v>-40.74074074074059</v>
       </c>
       <c r="L515" t="n">
         <v>4.559000000000005</v>
@@ -26536,7 +26520,7 @@
         <v>4.709999999999996</v>
       </c>
       <c r="K516" t="n">
-        <v>30.90909090909096</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L516" t="n">
         <v>4.552000000000004</v>
@@ -26587,7 +26571,7 @@
         <v>4.739999999999995</v>
       </c>
       <c r="K517" t="n">
-        <v>24.13793103448293</v>
+        <v>-17.24137931034487</v>
       </c>
       <c r="L517" t="n">
         <v>4.547000000000004</v>
@@ -26638,7 +26622,7 @@
         <v>4.749999999999995</v>
       </c>
       <c r="K518" t="n">
-        <v>22.03389830508495</v>
+        <v>-38.46153846153862</v>
       </c>
       <c r="L518" t="n">
         <v>4.541000000000005</v>
@@ -26689,7 +26673,7 @@
         <v>4.759999999999994</v>
       </c>
       <c r="K519" t="n">
-        <v>23.33333333333351</v>
+        <v>-38.46153846153862</v>
       </c>
       <c r="L519" t="n">
         <v>4.532000000000005</v>
@@ -26740,7 +26724,7 @@
         <v>4.789999999999994</v>
       </c>
       <c r="K520" t="n">
-        <v>26.98412698412709</v>
+        <v>-24.13793103448308</v>
       </c>
       <c r="L520" t="n">
         <v>4.525000000000004</v>
@@ -26791,7 +26775,7 @@
         <v>4.809999999999993</v>
       </c>
       <c r="K521" t="n">
-        <v>23.07692307692324</v>
+        <v>-21.42857142857154</v>
       </c>
       <c r="L521" t="n">
         <v>4.516000000000004</v>
@@ -26842,7 +26826,7 @@
         <v>4.819999999999993</v>
       </c>
       <c r="K522" t="n">
-        <v>24.24242424242439</v>
+        <v>-30.76923076923124</v>
       </c>
       <c r="L522" t="n">
         <v>4.511000000000004</v>
@@ -26893,7 +26877,7 @@
         <v>4.819999999999993</v>
       </c>
       <c r="K523" t="n">
-        <v>23.07692307692314</v>
+        <v>-10.0000000000004</v>
       </c>
       <c r="L523" t="n">
         <v>4.503000000000003</v>
@@ -26944,7 +26928,7 @@
         <v>4.859999999999993</v>
       </c>
       <c r="K524" t="n">
-        <v>20.63492063492074</v>
+        <v>36.8421052631582</v>
       </c>
       <c r="L524" t="n">
         <v>4.505000000000003</v>
@@ -26995,7 +26979,7 @@
         <v>4.859999999999993</v>
       </c>
       <c r="K525" t="n">
-        <v>12.28070175438595</v>
+        <v>20.00000000000047</v>
       </c>
       <c r="L525" t="n">
         <v>4.512000000000002</v>
@@ -27046,7 +27030,7 @@
         <v>4.859999999999993</v>
       </c>
       <c r="K526" t="n">
-        <v>-8.695652173913119</v>
+        <v>50.00000000000037</v>
       </c>
       <c r="L526" t="n">
         <v>4.515000000000002</v>
@@ -27097,7 +27081,7 @@
         <v>4.859999999999993</v>
       </c>
       <c r="K527" t="n">
-        <v>2.43902439024387</v>
+        <v>63.63636363636394</v>
       </c>
       <c r="L527" t="n">
         <v>4.521000000000002</v>
@@ -27148,7 +27132,7 @@
         <v>4.869999999999993</v>
       </c>
       <c r="K528" t="n">
-        <v>4.761904761904701</v>
+        <v>63.63636363636394</v>
       </c>
       <c r="L528" t="n">
         <v>4.529000000000002</v>
@@ -27199,7 +27183,7 @@
         <v>4.899999999999992</v>
       </c>
       <c r="K529" t="n">
-        <v>-12.1951219512196</v>
+        <v>9.090909090909825</v>
       </c>
       <c r="L529" t="n">
         <v>4.533000000000002</v>
@@ -27250,7 +27234,7 @@
         <v>4.899999999999992</v>
       </c>
       <c r="K530" t="n">
-        <v>-15.00000000000006</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L530" t="n">
         <v>4.534000000000002</v>
@@ -27301,7 +27285,7 @@
         <v>4.909999999999992</v>
       </c>
       <c r="K531" t="n">
-        <v>-12.1951219512196</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L531" t="n">
         <v>4.538000000000002</v>
@@ -27352,7 +27336,7 @@
         <v>4.909999999999992</v>
       </c>
       <c r="K532" t="n">
-        <v>-5.263157894736794</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L532" t="n">
         <v>4.541000000000002</v>
@@ -27403,7 +27387,7 @@
         <v>4.959999999999992</v>
       </c>
       <c r="K533" t="n">
-        <v>-25.00000000000022</v>
+        <v>-60.00000000000036</v>
       </c>
       <c r="L533" t="n">
         <v>4.539000000000002</v>
@@ -27454,7 +27438,7 @@
         <v>4.989999999999991</v>
       </c>
       <c r="K534" t="n">
-        <v>-2.702702702702923</v>
+        <v>-23.0769230769236</v>
       </c>
       <c r="L534" t="n">
         <v>4.536000000000003</v>
@@ -27505,7 +27489,7 @@
         <v>5.019999999999991</v>
       </c>
       <c r="K535" t="n">
-        <v>2.857142857142843</v>
+        <v>-37.50000000000035</v>
       </c>
       <c r="L535" t="n">
         <v>4.530000000000003</v>
@@ -27556,7 +27540,7 @@
         <v>5.02999999999999</v>
       </c>
       <c r="K536" t="n">
-        <v>-6.249999999999965</v>
+        <v>-29.41176470588272</v>
       </c>
       <c r="L536" t="n">
         <v>4.525000000000004</v>
@@ -27607,7 +27591,7 @@
         <v>5.02999999999999</v>
       </c>
       <c r="K537" t="n">
-        <v>3.448275862068945</v>
+        <v>-37.50000000000035</v>
       </c>
       <c r="L537" t="n">
         <v>4.520000000000004</v>
@@ -27658,7 +27642,7 @@
         <v>5.059999999999991</v>
       </c>
       <c r="K538" t="n">
-        <v>16.12903225806466</v>
+        <v>0</v>
       </c>
       <c r="L538" t="n">
         <v>4.517000000000004</v>
@@ -27709,7 +27693,7 @@
         <v>5.059999999999991</v>
       </c>
       <c r="K539" t="n">
-        <v>13.33333333333351</v>
+        <v>0</v>
       </c>
       <c r="L539" t="n">
         <v>4.517000000000004</v>
@@ -27760,7 +27744,7 @@
         <v>5.059999999999991</v>
       </c>
       <c r="K540" t="n">
-        <v>3.703703703703996</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L540" t="n">
         <v>4.517000000000004</v>
@@ -27811,7 +27795,7 @@
         <v>5.069999999999991</v>
       </c>
       <c r="K541" t="n">
-        <v>7.692307692307587</v>
+        <v>-12.50000000000035</v>
       </c>
       <c r="L541" t="n">
         <v>4.515000000000004</v>
@@ -27862,7 +27846,7 @@
         <v>5.069999999999991</v>
       </c>
       <c r="K542" t="n">
-        <v>3.999999999999943</v>
+        <v>27.27272727272683</v>
       </c>
       <c r="L542" t="n">
         <v>4.513000000000004</v>
@@ -27913,7 +27897,7 @@
         <v>5.079999999999992</v>
       </c>
       <c r="K543" t="n">
-        <v>7.692307692307902</v>
+        <v>11.11111111111177</v>
       </c>
       <c r="L543" t="n">
         <v>4.517000000000005</v>
@@ -27964,7 +27948,7 @@
         <v>5.079999999999992</v>
       </c>
       <c r="K544" t="n">
-        <v>-9.090909090908944</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L544" t="n">
         <v>4.518000000000005</v>
@@ -28015,7 +27999,7 @@
         <v>5.079999999999992</v>
       </c>
       <c r="K545" t="n">
-        <v>-9.090909090908944</v>
+        <v>59.99999999999858</v>
       </c>
       <c r="L545" t="n">
         <v>4.522000000000005</v>
@@ -28066,7 +28050,7 @@
         <v>5.099999999999992</v>
       </c>
       <c r="K546" t="n">
-        <v>0</v>
+        <v>71.42857142856998</v>
       </c>
       <c r="L546" t="n">
         <v>4.527000000000005</v>
@@ -28117,7 +28101,7 @@
         <v>5.109999999999991</v>
       </c>
       <c r="K547" t="n">
-        <v>-3.999999999999943</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L547" t="n">
         <v>4.531000000000004</v>
@@ -28168,7 +28152,7 @@
         <v>5.119999999999991</v>
       </c>
       <c r="K548" t="n">
-        <v>-3.999999999999943</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L548" t="n">
         <v>4.533000000000004</v>
@@ -28270,7 +28254,7 @@
         <v>5.16999999999999</v>
       </c>
       <c r="K550" t="n">
-        <v>11.11111111111097</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L550" t="n">
         <v>4.536000000000004</v>
@@ -28321,7 +28305,7 @@
         <v>5.17999999999999</v>
       </c>
       <c r="K551" t="n">
-        <v>3.703703703703655</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L551" t="n">
         <v>4.539000000000004</v>
@@ -28372,7 +28356,7 @@
         <v>5.18999999999999</v>
       </c>
       <c r="K552" t="n">
-        <v>7.142857142857053</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L552" t="n">
         <v>4.543000000000005</v>
@@ -28423,7 +28407,7 @@
         <v>5.19999999999999</v>
       </c>
       <c r="K553" t="n">
-        <v>25.0000000000001</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L553" t="n">
         <v>4.545000000000004</v>
@@ -28474,7 +28458,7 @@
         <v>5.219999999999989</v>
       </c>
       <c r="K554" t="n">
-        <v>4.347826086956857</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
         <v>4.545000000000004</v>
@@ -28525,7 +28509,7 @@
         <v>5.229999999999989</v>
       </c>
       <c r="K555" t="n">
-        <v>23.80952380952393</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L555" t="n">
         <v>4.546000000000005</v>
@@ -28576,7 +28560,7 @@
         <v>5.239999999999989</v>
       </c>
       <c r="K556" t="n">
-        <v>14.28571428571453</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L556" t="n">
         <v>4.544000000000005</v>
@@ -28627,7 +28611,7 @@
         <v>5.259999999999988</v>
       </c>
       <c r="K557" t="n">
-        <v>21.73913043478274</v>
+        <v>0</v>
       </c>
       <c r="L557" t="n">
         <v>4.545000000000004</v>
@@ -28729,7 +28713,7 @@
         <v>5.299999999999987</v>
       </c>
       <c r="K559" t="n">
-        <v>8.333333333333272</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L559" t="n">
         <v>4.545000000000004</v>
@@ -28780,7 +28764,7 @@
         <v>5.309999999999987</v>
       </c>
       <c r="K560" t="n">
-        <v>3.999999999999972</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L560" t="n">
         <v>4.543000000000005</v>
@@ -28831,7 +28815,7 @@
         <v>5.309999999999987</v>
       </c>
       <c r="K561" t="n">
-        <v>8.333333333333673</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L561" t="n">
         <v>4.542000000000004</v>
@@ -28882,7 +28866,7 @@
         <v>5.309999999999987</v>
       </c>
       <c r="K562" t="n">
-        <v>8.333333333333673</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L562" t="n">
         <v>4.540000000000004</v>
@@ -28933,7 +28917,7 @@
         <v>5.339999999999987</v>
       </c>
       <c r="K563" t="n">
-        <v>-7.692307692308008</v>
+        <v>-16.66666666666729</v>
       </c>
       <c r="L563" t="n">
         <v>4.536000000000004</v>
@@ -28984,7 +28968,7 @@
         <v>5.339999999999987</v>
       </c>
       <c r="K564" t="n">
-        <v>-7.692307692308008</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L564" t="n">
         <v>4.534000000000004</v>
@@ -29035,7 +29019,7 @@
         <v>5.349999999999987</v>
       </c>
       <c r="K565" t="n">
-        <v>-11.1111111111114</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L565" t="n">
         <v>4.530000000000004</v>
@@ -29086,7 +29070,7 @@
         <v>5.349999999999987</v>
       </c>
       <c r="K566" t="n">
-        <v>-20.00000000000028</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L566" t="n">
         <v>4.527000000000004</v>
@@ -29137,7 +29121,7 @@
         <v>5.359999999999987</v>
       </c>
       <c r="K567" t="n">
-        <v>-20.00000000000028</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L567" t="n">
         <v>4.521000000000004</v>
@@ -29188,7 +29172,7 @@
         <v>5.359999999999987</v>
       </c>
       <c r="K568" t="n">
-        <v>-25.00000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L568" t="n">
         <v>4.517000000000005</v>
@@ -29239,7 +29223,7 @@
         <v>5.369999999999987</v>
       </c>
       <c r="K569" t="n">
-        <v>-13.0434782608699</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L569" t="n">
         <v>4.512000000000005</v>
@@ -29290,7 +29274,7 @@
         <v>5.379999999999987</v>
       </c>
       <c r="K570" t="n">
-        <v>-23.80952380952413</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L570" t="n">
         <v>4.509000000000005</v>
@@ -29341,7 +29325,7 @@
         <v>5.399999999999986</v>
       </c>
       <c r="K571" t="n">
-        <v>-27.27272727272756</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L571" t="n">
         <v>4.504000000000005</v>
@@ -29392,7 +29376,7 @@
         <v>5.419999999999987</v>
       </c>
       <c r="K572" t="n">
-        <v>-39.13043478260916</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L572" t="n">
         <v>4.497000000000005</v>
@@ -29443,7 +29427,7 @@
         <v>5.449999999999987</v>
       </c>
       <c r="K573" t="n">
-        <v>-20.00000000000014</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L573" t="n">
         <v>4.496000000000005</v>
@@ -29494,7 +29478,7 @@
         <v>5.449999999999987</v>
       </c>
       <c r="K574" t="n">
-        <v>-13.0434782608698</v>
+        <v>0</v>
       </c>
       <c r="L574" t="n">
         <v>4.495000000000005</v>
@@ -29545,7 +29529,7 @@
         <v>5.449999999999987</v>
       </c>
       <c r="K575" t="n">
-        <v>-18.18181818181836</v>
+        <v>0</v>
       </c>
       <c r="L575" t="n">
         <v>4.495000000000005</v>
@@ -29596,7 +29580,7 @@
         <v>5.449999999999987</v>
       </c>
       <c r="K576" t="n">
-        <v>-14.28571428571453</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L576" t="n">
         <v>4.495000000000005</v>
@@ -29647,7 +29631,7 @@
         <v>5.449999999999987</v>
       </c>
       <c r="K577" t="n">
-        <v>-26.31578947368431</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L577" t="n">
         <v>4.496000000000005</v>
@@ -29698,7 +29682,7 @@
         <v>5.449999999999987</v>
       </c>
       <c r="K578" t="n">
-        <v>-17.64705882352966</v>
+        <v>0</v>
       </c>
       <c r="L578" t="n">
         <v>4.497000000000005</v>
@@ -29749,7 +29733,7 @@
         <v>5.449999999999987</v>
       </c>
       <c r="K579" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L579" t="n">
         <v>4.497000000000005</v>
@@ -29800,7 +29784,7 @@
         <v>5.449999999999987</v>
       </c>
       <c r="K580" t="n">
-        <v>-28.57142857142867</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L580" t="n">
         <v>4.496000000000005</v>
@@ -29851,7 +29835,7 @@
         <v>5.459999999999987</v>
       </c>
       <c r="K581" t="n">
-        <v>-20.00000000000024</v>
+        <v>100</v>
       </c>
       <c r="L581" t="n">
         <v>4.498000000000005</v>
@@ -29902,7 +29886,7 @@
         <v>5.469999999999986</v>
       </c>
       <c r="K582" t="n">
-        <v>-25.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L582" t="n">
         <v>4.501000000000005</v>
@@ -29953,7 +29937,7 @@
         <v>5.479999999999986</v>
       </c>
       <c r="K583" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L583" t="n">
         <v>4.502000000000004</v>
@@ -30004,7 +29988,7 @@
         <v>5.479999999999986</v>
       </c>
       <c r="K584" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L584" t="n">
         <v>4.503000000000005</v>
@@ -30055,7 +30039,7 @@
         <v>5.479999999999986</v>
       </c>
       <c r="K585" t="n">
-        <v>7.692307692307587</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L585" t="n">
         <v>4.504000000000004</v>
@@ -30106,7 +30090,7 @@
         <v>5.479999999999986</v>
       </c>
       <c r="K586" t="n">
-        <v>7.692307692307587</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L586" t="n">
         <v>4.505000000000004</v>
@@ -30157,7 +30141,7 @@
         <v>5.479999999999986</v>
       </c>
       <c r="K587" t="n">
-        <v>16.66666666666642</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L587" t="n">
         <v>4.506000000000004</v>
@@ -30208,7 +30192,7 @@
         <v>5.479999999999986</v>
       </c>
       <c r="K588" t="n">
-        <v>16.66666666666642</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L588" t="n">
         <v>4.507000000000003</v>
@@ -30259,7 +30243,7 @@
         <v>5.479999999999986</v>
       </c>
       <c r="K589" t="n">
-        <v>9.090909090908944</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L589" t="n">
         <v>4.508000000000004</v>
@@ -30361,7 +30345,7 @@
         <v>5.479999999999986</v>
       </c>
       <c r="K591" t="n">
-        <v>24.99999999999945</v>
+        <v>100</v>
       </c>
       <c r="L591" t="n">
         <v>4.509000000000003</v>
@@ -30411,9 +30395,7 @@
       <c r="J592" t="n">
         <v>5.479999999999986</v>
       </c>
-      <c r="K592" t="n">
-        <v>66.66666666666717</v>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>4.510000000000003</v>
       </c>
@@ -30462,9 +30444,7 @@
       <c r="J593" t="n">
         <v>5.479999999999986</v>
       </c>
-      <c r="K593" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>4.510000000000003</v>
       </c>
@@ -30513,9 +30493,7 @@
       <c r="J594" t="n">
         <v>5.479999999999986</v>
       </c>
-      <c r="K594" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>4.510000000000003</v>
       </c>
@@ -30564,9 +30542,7 @@
       <c r="J595" t="n">
         <v>5.479999999999986</v>
       </c>
-      <c r="K595" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>4.510000000000003</v>
       </c>
@@ -30615,9 +30591,7 @@
       <c r="J596" t="n">
         <v>5.479999999999986</v>
       </c>
-      <c r="K596" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>4.510000000000003</v>
       </c>
@@ -30666,9 +30640,7 @@
       <c r="J597" t="n">
         <v>5.479999999999986</v>
       </c>
-      <c r="K597" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>4.510000000000003</v>
       </c>
@@ -30717,9 +30689,7 @@
       <c r="J598" t="n">
         <v>5.479999999999986</v>
       </c>
-      <c r="K598" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>4.510000000000003</v>
       </c>
@@ -30769,7 +30739,7 @@
         <v>5.489999999999986</v>
       </c>
       <c r="K599" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L599" t="n">
         <v>4.509000000000003</v>
@@ -30820,7 +30790,7 @@
         <v>5.489999999999986</v>
       </c>
       <c r="K600" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L600" t="n">
         <v>4.508000000000004</v>
@@ -30871,7 +30841,7 @@
         <v>5.489999999999986</v>
       </c>
       <c r="K601" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L601" t="n">
         <v>4.507000000000003</v>
@@ -30922,7 +30892,7 @@
         <v>5.489999999999986</v>
       </c>
       <c r="K602" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L602" t="n">
         <v>4.506000000000004</v>
@@ -31533,9 +31503,7 @@
       <c r="J614" t="n">
         <v>5.499999999999986</v>
       </c>
-      <c r="K614" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>4.490000000000007</v>
       </c>
@@ -31584,9 +31552,7 @@
       <c r="J615" t="n">
         <v>5.499999999999986</v>
       </c>
-      <c r="K615" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>4.490000000000007</v>
       </c>
@@ -31635,9 +31601,7 @@
       <c r="J616" t="n">
         <v>5.499999999999986</v>
       </c>
-      <c r="K616" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>4.490000000000007</v>
       </c>
@@ -31738,7 +31702,7 @@
         <v>5.529999999999985</v>
       </c>
       <c r="K618" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L618" t="n">
         <v>4.490000000000006</v>
@@ -31789,7 +31753,7 @@
         <v>5.539999999999985</v>
       </c>
       <c r="K619" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L619" t="n">
         <v>4.490000000000006</v>
@@ -31840,7 +31804,7 @@
         <v>5.539999999999985</v>
       </c>
       <c r="K620" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L620" t="n">
         <v>4.490000000000006</v>
@@ -31891,7 +31855,7 @@
         <v>5.569999999999984</v>
       </c>
       <c r="K621" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L621" t="n">
         <v>4.493000000000006</v>
@@ -31942,7 +31906,7 @@
         <v>5.599999999999984</v>
       </c>
       <c r="K622" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L622" t="n">
         <v>4.493000000000006</v>
@@ -31993,7 +31957,7 @@
         <v>5.609999999999983</v>
       </c>
       <c r="K623" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L623" t="n">
         <v>4.494000000000005</v>
@@ -32044,7 +32008,7 @@
         <v>5.619999999999983</v>
       </c>
       <c r="K624" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L624" t="n">
         <v>4.494000000000005</v>
@@ -32146,7 +32110,7 @@
         <v>5.629999999999983</v>
       </c>
       <c r="K626" t="n">
-        <v>7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L626" t="n">
         <v>4.495000000000005</v>
@@ -32197,7 +32161,7 @@
         <v>5.629999999999983</v>
       </c>
       <c r="K627" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L627" t="n">
         <v>4.497000000000005</v>
@@ -32350,7 +32314,7 @@
         <v>5.639999999999983</v>
       </c>
       <c r="K630" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L630" t="n">
         <v>4.496000000000006</v>
@@ -32452,7 +32416,7 @@
         <v>5.639999999999983</v>
       </c>
       <c r="K632" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L632" t="n">
         <v>4.493000000000007</v>
@@ -32605,7 +32569,7 @@
         <v>5.639999999999983</v>
       </c>
       <c r="K635" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L635" t="n">
         <v>4.492000000000006</v>
@@ -32656,7 +32620,7 @@
         <v>5.649999999999983</v>
       </c>
       <c r="K636" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L636" t="n">
         <v>4.492000000000006</v>
@@ -32707,7 +32671,7 @@
         <v>5.659999999999982</v>
       </c>
       <c r="K637" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L637" t="n">
         <v>4.491000000000007</v>
@@ -32758,7 +32722,7 @@
         <v>5.659999999999982</v>
       </c>
       <c r="K638" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L638" t="n">
         <v>4.491000000000007</v>
@@ -32911,7 +32875,7 @@
         <v>5.669999999999982</v>
       </c>
       <c r="K641" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L641" t="n">
         <v>4.492000000000006</v>
@@ -33013,7 +32977,7 @@
         <v>5.679999999999982</v>
       </c>
       <c r="K643" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L643" t="n">
         <v>4.492000000000006</v>
@@ -33115,7 +33079,7 @@
         <v>5.679999999999982</v>
       </c>
       <c r="K645" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L645" t="n">
         <v>4.492000000000006</v>
@@ -33166,7 +33130,7 @@
         <v>5.699999999999982</v>
       </c>
       <c r="K646" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L646" t="n">
         <v>4.493000000000007</v>
@@ -33217,7 +33181,7 @@
         <v>5.709999999999981</v>
       </c>
       <c r="K647" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L647" t="n">
         <v>4.494000000000006</v>
@@ -33319,7 +33283,7 @@
         <v>5.739999999999981</v>
       </c>
       <c r="K649" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L649" t="n">
         <v>4.496000000000006</v>
@@ -33370,7 +33334,7 @@
         <v>5.75999999999998</v>
       </c>
       <c r="K650" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L650" t="n">
         <v>4.496000000000006</v>
@@ -33421,7 +33385,7 @@
         <v>5.76999999999998</v>
       </c>
       <c r="K651" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L651" t="n">
         <v>4.496000000000006</v>
@@ -33472,7 +33436,7 @@
         <v>5.76999999999998</v>
       </c>
       <c r="K652" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L652" t="n">
         <v>4.497000000000005</v>
@@ -33574,7 +33538,7 @@
         <v>5.78999999999998</v>
       </c>
       <c r="K654" t="n">
-        <v>6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L654" t="n">
         <v>4.498000000000006</v>
@@ -33625,7 +33589,7 @@
         <v>5.78999999999998</v>
       </c>
       <c r="K655" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L655" t="n">
         <v>4.499000000000005</v>
@@ -33676,7 +33640,7 @@
         <v>5.799999999999979</v>
       </c>
       <c r="K656" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L656" t="n">
         <v>4.497000000000005</v>
@@ -33778,7 +33742,7 @@
         <v>5.799999999999979</v>
       </c>
       <c r="K658" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L658" t="n">
         <v>4.496000000000006</v>
@@ -33880,7 +33844,7 @@
         <v>5.799999999999979</v>
       </c>
       <c r="K660" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L660" t="n">
         <v>4.494000000000006</v>
@@ -33931,7 +33895,7 @@
         <v>5.819999999999979</v>
       </c>
       <c r="K661" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L661" t="n">
         <v>4.495000000000006</v>
@@ -33982,7 +33946,7 @@
         <v>5.819999999999979</v>
       </c>
       <c r="K662" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L662" t="n">
         <v>4.496000000000006</v>
@@ -34033,7 +33997,7 @@
         <v>5.819999999999979</v>
       </c>
       <c r="K663" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L663" t="n">
         <v>4.498000000000006</v>
@@ -34084,7 +34048,7 @@
         <v>5.819999999999979</v>
       </c>
       <c r="K664" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L664" t="n">
         <v>4.499000000000005</v>
@@ -34135,7 +34099,7 @@
         <v>5.829999999999979</v>
       </c>
       <c r="K665" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L665" t="n">
         <v>4.499000000000005</v>
@@ -34186,7 +34150,7 @@
         <v>5.839999999999979</v>
       </c>
       <c r="K666" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L666" t="n">
         <v>4.499000000000005</v>
@@ -34237,7 +34201,7 @@
         <v>5.859999999999979</v>
       </c>
       <c r="K667" t="n">
-        <v>-20.00000000000047</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L667" t="n">
         <v>4.497000000000005</v>
@@ -34288,7 +34252,7 @@
         <v>5.86999999999998</v>
       </c>
       <c r="K668" t="n">
-        <v>-6.666666666666588</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L668" t="n">
         <v>4.496000000000004</v>
@@ -34339,7 +34303,7 @@
         <v>5.86999999999998</v>
       </c>
       <c r="K669" t="n">
-        <v>-23.07692307692276</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L669" t="n">
         <v>4.495000000000004</v>
@@ -34390,7 +34354,7 @@
         <v>5.86999999999998</v>
       </c>
       <c r="K670" t="n">
-        <v>-9.090909090908944</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L670" t="n">
         <v>4.494000000000003</v>
@@ -34441,7 +34405,7 @@
         <v>5.86999999999998</v>
       </c>
       <c r="K671" t="n">
-        <v>-19.99999999999964</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L671" t="n">
         <v>4.491000000000003</v>
@@ -34492,7 +34456,7 @@
         <v>5.86999999999998</v>
       </c>
       <c r="K672" t="n">
-        <v>-19.99999999999964</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L672" t="n">
         <v>4.488000000000003</v>
@@ -34543,7 +34507,7 @@
         <v>5.86999999999998</v>
       </c>
       <c r="K673" t="n">
-        <v>-11.11111111111089</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L673" t="n">
         <v>4.485000000000003</v>
@@ -34594,7 +34558,7 @@
         <v>5.86999999999998</v>
       </c>
       <c r="K674" t="n">
-        <v>-24.99999999999945</v>
+        <v>-49.99999999999778</v>
       </c>
       <c r="L674" t="n">
         <v>4.482000000000003</v>
@@ -34645,7 +34609,7 @@
         <v>5.87999999999998</v>
       </c>
       <c r="K675" t="n">
-        <v>-33.33333333333333</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L675" t="n">
         <v>4.479000000000003</v>
@@ -34696,7 +34660,7 @@
         <v>5.889999999999981</v>
       </c>
       <c r="K676" t="n">
-        <v>-11.11111111111067</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L676" t="n">
         <v>4.478000000000002</v>
@@ -34747,7 +34711,7 @@
         <v>5.889999999999981</v>
       </c>
       <c r="K677" t="n">
-        <v>-11.11111111111067</v>
+        <v>0</v>
       </c>
       <c r="L677" t="n">
         <v>4.479000000000002</v>
@@ -34798,7 +34762,7 @@
         <v>5.889999999999981</v>
       </c>
       <c r="K678" t="n">
-        <v>-11.11111111111067</v>
+        <v>0</v>
       </c>
       <c r="L678" t="n">
         <v>4.479000000000002</v>
@@ -34849,7 +34813,7 @@
         <v>5.889999999999981</v>
       </c>
       <c r="K679" t="n">
-        <v>-11.11111111111067</v>
+        <v>0</v>
       </c>
       <c r="L679" t="n">
         <v>4.479000000000002</v>
@@ -34900,7 +34864,7 @@
         <v>5.889999999999981</v>
       </c>
       <c r="K680" t="n">
-        <v>-11.11111111111067</v>
+        <v>0</v>
       </c>
       <c r="L680" t="n">
         <v>4.479000000000002</v>
@@ -34951,7 +34915,7 @@
         <v>5.889999999999981</v>
       </c>
       <c r="K681" t="n">
-        <v>-42.85714285714069</v>
+        <v>0</v>
       </c>
       <c r="L681" t="n">
         <v>4.479000000000002</v>
@@ -35002,7 +34966,7 @@
         <v>5.889999999999981</v>
       </c>
       <c r="K682" t="n">
-        <v>-42.85714285714069</v>
+        <v>0</v>
       </c>
       <c r="L682" t="n">
         <v>4.479000000000002</v>
@@ -35053,7 +35017,7 @@
         <v>5.889999999999981</v>
       </c>
       <c r="K683" t="n">
-        <v>-42.85714285714069</v>
+        <v>0</v>
       </c>
       <c r="L683" t="n">
         <v>4.479000000000002</v>
@@ -35104,7 +35068,7 @@
         <v>5.889999999999981</v>
       </c>
       <c r="K684" t="n">
-        <v>-42.85714285714069</v>
+        <v>100</v>
       </c>
       <c r="L684" t="n">
         <v>4.479000000000002</v>
@@ -35154,9 +35118,7 @@
       <c r="J685" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K685" t="n">
-        <v>-33.33333333333136</v>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -35205,9 +35167,7 @@
       <c r="J686" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K686" t="n">
-        <v>-19.99999999999858</v>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -35256,9 +35216,7 @@
       <c r="J687" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K687" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -35307,9 +35265,7 @@
       <c r="J688" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K688" t="n">
-        <v>0</v>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -35358,9 +35314,7 @@
       <c r="J689" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K689" t="n">
-        <v>0</v>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -35409,9 +35363,7 @@
       <c r="J690" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K690" t="n">
-        <v>0</v>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -35460,9 +35412,7 @@
       <c r="J691" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K691" t="n">
-        <v>0</v>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -35511,9 +35461,7 @@
       <c r="J692" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K692" t="n">
-        <v>0</v>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -35562,9 +35510,7 @@
       <c r="J693" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K693" t="n">
-        <v>0</v>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -35613,9 +35559,7 @@
       <c r="J694" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K694" t="n">
-        <v>0</v>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -35664,9 +35608,7 @@
       <c r="J695" t="n">
         <v>5.889999999999981</v>
       </c>
-      <c r="K695" t="n">
-        <v>100</v>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -36273,7 +36215,7 @@
         <v>5.909999999999981</v>
       </c>
       <c r="K707" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L707" t="n">
         <v>4.481000000000003</v>
@@ -36323,9 +36265,7 @@
       <c r="J708" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K708" t="n">
-        <v>0</v>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>4.480000000000003</v>
       </c>
@@ -36374,9 +36314,7 @@
       <c r="J709" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K709" t="n">
-        <v>0</v>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -36425,9 +36363,7 @@
       <c r="J710" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K710" t="n">
-        <v>0</v>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -36476,9 +36412,7 @@
       <c r="J711" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K711" t="n">
-        <v>0</v>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -36527,9 +36461,7 @@
       <c r="J712" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K712" t="n">
-        <v>0</v>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -36578,9 +36510,7 @@
       <c r="J713" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K713" t="n">
-        <v>0</v>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -36629,9 +36559,7 @@
       <c r="J714" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K714" t="n">
-        <v>0</v>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -36680,9 +36608,7 @@
       <c r="J715" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K715" t="n">
-        <v>0</v>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -36731,9 +36657,7 @@
       <c r="J716" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K716" t="n">
-        <v>0</v>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -36782,9 +36706,7 @@
       <c r="J717" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K717" t="n">
-        <v>0</v>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -36833,9 +36755,7 @@
       <c r="J718" t="n">
         <v>5.909999999999981</v>
       </c>
-      <c r="K718" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>4.480000000000002</v>
       </c>
@@ -37883,7 +37803,7 @@
         <v>6.049999999999983</v>
       </c>
       <c r="K739" t="n">
-        <v>-57.14285714285624</v>
+        <v>-45.45454545454442</v>
       </c>
       <c r="L739" t="n">
         <v>4.430000000000002</v>
@@ -37934,7 +37854,7 @@
         <v>6.069999999999983</v>
       </c>
       <c r="K740" t="n">
-        <v>-37.49999999999986</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L740" t="n">
         <v>4.427000000000002</v>
@@ -37985,7 +37905,7 @@
         <v>6.069999999999983</v>
       </c>
       <c r="K741" t="n">
-        <v>-37.49999999999986</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L741" t="n">
         <v>4.426000000000003</v>
@@ -38036,7 +37956,7 @@
         <v>6.069999999999983</v>
       </c>
       <c r="K742" t="n">
-        <v>-37.49999999999986</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L742" t="n">
         <v>4.424000000000003</v>
@@ -38087,7 +38007,7 @@
         <v>6.069999999999983</v>
       </c>
       <c r="K743" t="n">
-        <v>-37.49999999999986</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L743" t="n">
         <v>4.423000000000004</v>
@@ -38138,7 +38058,7 @@
         <v>6.099999999999983</v>
       </c>
       <c r="K744" t="n">
-        <v>-15.78947368421048</v>
+        <v>25.00000000000083</v>
       </c>
       <c r="L744" t="n">
         <v>4.423000000000004</v>
@@ -38189,7 +38109,7 @@
         <v>6.139999999999983</v>
       </c>
       <c r="K745" t="n">
-        <v>-30.43478260869548</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L745" t="n">
         <v>4.421000000000003</v>
@@ -38240,7 +38160,7 @@
         <v>6.139999999999983</v>
       </c>
       <c r="K746" t="n">
-        <v>-30.43478260869548</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L746" t="n">
         <v>4.419000000000003</v>
@@ -38291,7 +38211,7 @@
         <v>6.149999999999983</v>
       </c>
       <c r="K747" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L747" t="n">
         <v>4.419000000000003</v>
@@ -38342,7 +38262,7 @@
         <v>6.159999999999982</v>
       </c>
       <c r="K748" t="n">
-        <v>-27.99999999999991</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L748" t="n">
         <v>4.418000000000004</v>
@@ -38393,7 +38313,7 @@
         <v>6.169999999999982</v>
       </c>
       <c r="K749" t="n">
-        <v>-23.07692307692313</v>
+        <v>0</v>
       </c>
       <c r="L749" t="n">
         <v>4.420000000000003</v>
@@ -38444,7 +38364,7 @@
         <v>6.179999999999982</v>
       </c>
       <c r="K750" t="n">
-        <v>-16.6666666666666</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L750" t="n">
         <v>4.419000000000004</v>
@@ -38495,7 +38415,7 @@
         <v>6.179999999999982</v>
       </c>
       <c r="K751" t="n">
-        <v>-9.09090909090887</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L751" t="n">
         <v>4.418000000000004</v>
@@ -38546,7 +38466,7 @@
         <v>6.179999999999982</v>
       </c>
       <c r="K752" t="n">
-        <v>-14.28571428571441</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L752" t="n">
         <v>4.417000000000003</v>

--- a/BackTest/2019-10-16 BackTest DAC.xlsx
+++ b/BackTest/2019-10-16 BackTest DAC.xlsx
@@ -6436,13 +6436,17 @@
         <v>4.410999999999984</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K173" t="n">
+        <v>4.37</v>
+      </c>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
@@ -6471,14 +6475,22 @@
         <v>4.409833333333318</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="K174" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6506,14 +6518,22 @@
         <v>4.408333333333318</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K175" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6541,14 +6561,22 @@
         <v>4.406666666666652</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K176" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6576,14 +6604,22 @@
         <v>4.405499999999986</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K177" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6653,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6646,14 +6688,22 @@
         <v>4.402499999999986</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K179" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +6737,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +6778,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6819,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +6860,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +6901,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +6942,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +6983,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +7024,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7065,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7106,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +7147,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7188,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +7229,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7142,8 +7270,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7177,8 +7311,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7212,8 +7352,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7247,8 +7393,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7282,8 +7434,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7317,8 +7475,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +7516,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7557,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7422,8 +7598,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7457,8 +7639,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +7680,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +7721,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7562,8 +7762,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7597,8 +7803,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7632,8 +7844,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +7885,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +7926,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +7967,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +8008,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7807,8 +8049,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7842,8 +8090,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +8131,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8172,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8213,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7982,8 +8254,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8017,8 +8295,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8052,8 +8336,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8087,8 +8377,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +8418,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8157,8 +8459,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8192,8 +8500,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8227,8 +8541,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8262,8 +8582,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8297,8 +8623,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8332,8 +8664,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8367,8 +8705,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8402,8 +8746,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8437,8 +8787,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8472,8 +8828,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8507,8 +8869,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8542,8 +8910,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8577,8 +8951,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8612,8 +8992,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8647,8 +9033,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8682,8 +9074,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8717,8 +9115,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8752,8 +9156,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8787,8 +9197,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8822,8 +9238,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8857,8 +9279,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8892,8 +9320,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8927,8 +9361,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8962,8 +9402,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8997,8 +9443,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9032,8 +9484,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9525,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9102,8 +9566,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9137,8 +9607,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9172,8 +9648,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9207,8 +9689,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9242,8 +9730,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9277,8 +9771,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9312,8 +9812,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9347,8 +9853,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9382,8 +9894,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9417,8 +9935,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9452,8 +9976,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9487,8 +10017,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9522,8 +10058,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9557,8 +10099,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9586,14 +10134,22 @@
         <v>4.379333333333311</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K263" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9621,14 +10177,22 @@
         <v>4.378666666666645</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K264" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9656,14 +10220,22 @@
         <v>4.377999999999977</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K265" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9691,14 +10263,22 @@
         <v>4.376999999999978</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K266" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9726,14 +10306,22 @@
         <v>4.376166666666644</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K267" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9770,9 +10358,13 @@
         <v>4.34</v>
       </c>
       <c r="K268" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="L268" t="inlineStr"/>
+        <v>4.37</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9809,11 +10401,11 @@
         <v>4.34</v>
       </c>
       <c r="K269" t="n">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M269" t="n">
@@ -9852,11 +10444,11 @@
         <v>4.34</v>
       </c>
       <c r="K270" t="n">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M270" t="n">
@@ -9892,12 +10484,16 @@
         <v>0</v>
       </c>
       <c r="J271" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="K271" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L271" t="inlineStr"/>
+        <v>4.37</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9934,11 +10530,11 @@
         <v>4.35</v>
       </c>
       <c r="K272" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M272" t="n">
@@ -9974,14 +10570,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="K273" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M273" t="n">
@@ -10020,7 +10616,7 @@
         <v>4.35</v>
       </c>
       <c r="K274" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10054,14 +10650,16 @@
         <v>4.370499999999979</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>4.35</v>
+      </c>
       <c r="K275" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10102,7 +10700,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10143,7 +10741,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10184,7 +10782,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10225,7 +10823,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10266,7 +10864,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10307,7 +10905,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10348,7 +10946,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -10389,7 +10987,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -10430,7 +11028,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -10471,7 +11069,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -10512,7 +11110,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -10553,7 +11151,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -10594,7 +11192,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -10635,7 +11233,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -10676,7 +11274,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -10717,7 +11315,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -10758,7 +11356,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -10799,7 +11397,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -10840,7 +11438,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -10881,7 +11479,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -10922,7 +11520,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -10963,7 +11561,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11004,7 +11602,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11045,7 +11643,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11086,7 +11684,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11127,7 +11725,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11168,7 +11766,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11209,7 +11807,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11250,7 +11848,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11291,7 +11889,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11325,16 +11923,14 @@
         <v>4.352833333333327</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11375,7 +11971,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -11416,7 +12012,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -11450,16 +12046,14 @@
         <v>4.350333333333327</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -11493,16 +12087,14 @@
         <v>4.350333333333327</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -11536,16 +12128,14 @@
         <v>4.35016666666666</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -11586,7 +12176,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -11627,7 +12217,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -11661,16 +12251,14 @@
         <v>4.348666666666658</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -11711,7 +12299,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -11752,7 +12340,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -11786,16 +12374,14 @@
         <v>4.348166666666658</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -11836,7 +12422,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -11870,16 +12456,14 @@
         <v>4.347999999999993</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -11913,16 +12497,14 @@
         <v>4.347666666666659</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -11956,16 +12538,14 @@
         <v>4.347333333333326</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -11999,16 +12579,14 @@
         <v>4.34716666666666</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -12042,16 +12620,14 @@
         <v>4.34716666666666</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -12085,16 +12661,14 @@
         <v>4.347499999999994</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -12128,16 +12702,14 @@
         <v>4.347333333333327</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -12171,16 +12743,14 @@
         <v>4.346999999999994</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -12214,16 +12784,14 @@
         <v>4.346833333333327</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12257,16 +12825,14 @@
         <v>4.346999999999995</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12300,16 +12866,14 @@
         <v>4.346999999999995</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12343,16 +12907,14 @@
         <v>4.346999999999995</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12386,16 +12948,14 @@
         <v>4.346999999999995</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12429,16 +12989,14 @@
         <v>4.346666666666661</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12472,16 +13030,14 @@
         <v>4.347333333333327</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -12515,16 +13071,14 @@
         <v>4.346999999999993</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12565,7 +13119,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12606,7 +13160,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12640,16 +13194,14 @@
         <v>4.345833333333325</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -12683,16 +13235,14 @@
         <v>4.345333333333325</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -12726,16 +13276,14 @@
         <v>4.344666666666657</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -12769,16 +13317,14 @@
         <v>4.344166666666657</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -12812,16 +13358,14 @@
         <v>4.343833333333323</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -12855,16 +13399,14 @@
         <v>4.343666666666655</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -12898,16 +13440,14 @@
         <v>4.343333333333321</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -12941,16 +13481,14 @@
         <v>4.342833333333321</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -12984,16 +13522,14 @@
         <v>4.34233333333332</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -13027,16 +13563,14 @@
         <v>4.34183333333332</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -13070,16 +13604,14 @@
         <v>4.341499999999986</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -13113,16 +13645,14 @@
         <v>4.341166666666652</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -13156,16 +13686,14 @@
         <v>4.340666666666651</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -13199,16 +13727,14 @@
         <v>4.340166666666651</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -13242,16 +13768,14 @@
         <v>4.339833333333317</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -13285,16 +13809,14 @@
         <v>4.339333333333316</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -13328,16 +13850,14 @@
         <v>4.338999999999983</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -13371,16 +13891,14 @@
         <v>4.338666666666649</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -13414,16 +13932,14 @@
         <v>4.338666666666649</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -13457,16 +13973,14 @@
         <v>4.338666666666649</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -13500,16 +14014,14 @@
         <v>4.338666666666649</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -13543,16 +14055,14 @@
         <v>4.338666666666649</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -13586,16 +14096,14 @@
         <v>4.338499999999981</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -13629,16 +14137,14 @@
         <v>4.338333333333313</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -13672,16 +14178,14 @@
         <v>4.337833333333313</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -13715,16 +14219,14 @@
         <v>4.337333333333313</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -13758,16 +14260,14 @@
         <v>4.337166666666646</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -13801,16 +14301,14 @@
         <v>4.336666666666646</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -13844,16 +14342,14 @@
         <v>4.335999999999979</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -13887,16 +14383,14 @@
         <v>4.335666666666645</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -13930,16 +14424,14 @@
         <v>4.335499999999979</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -13973,16 +14465,14 @@
         <v>4.335333333333312</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -14016,16 +14506,14 @@
         <v>4.334666666666646</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -14059,16 +14547,14 @@
         <v>4.333999999999978</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -14102,16 +14588,14 @@
         <v>4.333666666666645</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -14145,16 +14629,14 @@
         <v>4.333499999999979</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -14188,16 +14670,14 @@
         <v>4.334166666666646</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -14231,16 +14711,14 @@
         <v>4.334166666666646</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -14274,16 +14752,14 @@
         <v>4.334166666666646</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -14317,16 +14793,14 @@
         <v>4.333499999999979</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -14360,16 +14834,14 @@
         <v>4.333833333333313</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -14403,16 +14875,14 @@
         <v>4.333333333333313</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -14446,16 +14916,14 @@
         <v>4.333666666666645</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -14489,16 +14957,14 @@
         <v>4.333666666666645</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -14532,16 +14998,14 @@
         <v>4.333666666666645</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -14575,16 +15039,14 @@
         <v>4.333999999999979</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -14618,16 +15080,14 @@
         <v>4.333833333333313</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -14661,16 +15121,14 @@
         <v>4.333499999999979</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -14704,16 +15162,14 @@
         <v>4.333499999999979</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -14747,16 +15203,14 @@
         <v>4.333999999999979</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -14790,16 +15244,14 @@
         <v>4.333999999999979</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -14833,16 +15285,14 @@
         <v>4.333499999999979</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -14876,16 +15326,14 @@
         <v>4.333333333333313</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -14919,16 +15367,14 @@
         <v>4.333333333333313</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -14962,16 +15408,14 @@
         <v>4.332999999999979</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -15005,16 +15449,14 @@
         <v>4.333166666666645</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -15048,16 +15490,14 @@
         <v>4.332499999999979</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -15091,16 +15531,14 @@
         <v>4.332833333333313</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -15134,16 +15572,14 @@
         <v>4.33249999999998</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -15177,16 +15613,14 @@
         <v>4.332333333333313</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -15220,16 +15654,14 @@
         <v>4.332499999999981</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -15263,16 +15695,14 @@
         <v>4.332499999999981</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -15306,16 +15736,14 @@
         <v>4.332833333333314</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -15349,16 +15777,14 @@
         <v>4.332666666666648</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -15392,16 +15818,14 @@
         <v>4.332499999999981</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -15435,16 +15859,14 @@
         <v>4.332166666666648</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -15478,16 +15900,14 @@
         <v>4.331999999999981</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -15521,16 +15941,14 @@
         <v>4.331999999999981</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -15564,16 +15982,14 @@
         <v>4.331999999999981</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -15607,16 +16023,14 @@
         <v>4.331999999999981</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -15650,16 +16064,14 @@
         <v>4.332333333333315</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -15693,16 +16105,14 @@
         <v>4.33266666666665</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -15736,16 +16146,14 @@
         <v>4.332999999999983</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -15779,16 +16187,14 @@
         <v>4.33316666666665</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -15822,16 +16228,14 @@
         <v>4.333499999999984</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -15865,16 +16269,14 @@
         <v>4.333499999999984</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -15908,16 +16310,14 @@
         <v>4.333333333333317</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -15951,16 +16351,14 @@
         <v>4.333166666666651</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -15994,16 +16392,14 @@
         <v>4.33266666666665</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -16037,16 +16433,14 @@
         <v>4.331999999999983</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -16080,16 +16474,14 @@
         <v>4.331499999999982</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -16123,16 +16515,14 @@
         <v>4.330999999999983</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -16166,16 +16556,14 @@
         <v>4.33116666666665</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -16209,16 +16597,14 @@
         <v>4.331333333333317</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -16252,16 +16638,14 @@
         <v>4.331666666666651</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -16295,16 +16679,14 @@
         <v>4.331666666666651</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -16338,16 +16720,14 @@
         <v>4.331499999999985</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -16381,16 +16761,14 @@
         <v>4.331833333333318</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -16424,16 +16802,14 @@
         <v>4.331999999999984</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -16467,16 +16843,14 @@
         <v>4.332333333333318</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -16510,16 +16884,14 @@
         <v>4.332333333333318</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -16553,16 +16925,14 @@
         <v>4.33266666666665</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -16596,16 +16966,14 @@
         <v>4.33266666666665</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -16639,16 +17007,14 @@
         <v>4.332999999999984</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -16682,16 +17048,14 @@
         <v>4.333333333333317</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -16725,16 +17089,14 @@
         <v>4.333333333333317</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -16768,16 +17130,14 @@
         <v>4.332833333333316</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -16811,16 +17171,14 @@
         <v>4.332833333333316</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -16854,16 +17212,14 @@
         <v>4.33266666666665</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -16897,16 +17253,14 @@
         <v>4.333166666666651</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -16940,16 +17294,14 @@
         <v>4.332999999999983</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -16983,16 +17335,14 @@
         <v>4.333333333333316</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -17026,16 +17376,14 @@
         <v>4.332999999999983</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -17069,16 +17417,14 @@
         <v>4.332999999999983</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -17112,16 +17458,14 @@
         <v>4.333499999999984</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -17155,16 +17499,14 @@
         <v>4.333499999999984</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -17198,16 +17540,14 @@
         <v>4.333833333333318</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -17241,16 +17581,14 @@
         <v>4.333499999999985</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -17284,16 +17622,14 @@
         <v>4.333833333333319</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -17327,16 +17663,14 @@
         <v>4.333833333333319</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -17370,16 +17704,14 @@
         <v>4.333999999999985</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -17413,16 +17745,14 @@
         <v>4.334333333333318</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -17456,16 +17786,14 @@
         <v>4.334166666666651</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -17499,16 +17827,14 @@
         <v>4.333999999999985</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -17542,16 +17868,14 @@
         <v>4.333833333333319</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -17585,16 +17909,14 @@
         <v>4.333666666666653</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -17628,16 +17950,14 @@
         <v>4.333666666666653</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -17671,16 +17991,14 @@
         <v>4.333333333333318</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -17714,16 +18032,14 @@
         <v>4.333666666666651</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -17757,16 +18073,14 @@
         <v>4.333666666666651</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -17800,16 +18114,14 @@
         <v>4.333499999999984</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -17843,16 +18155,14 @@
         <v>4.333833333333317</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -17886,16 +18196,14 @@
         <v>4.333499999999984</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -17929,16 +18237,14 @@
         <v>4.33366666666665</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -17972,16 +18278,14 @@
         <v>4.334166666666651</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -18015,16 +18319,14 @@
         <v>4.334666666666651</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -18058,16 +18360,14 @@
         <v>4.334999999999985</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -18101,16 +18401,14 @@
         <v>4.335166666666652</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -18144,16 +18442,14 @@
         <v>4.335499999999985</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -18187,16 +18483,14 @@
         <v>4.33583333333332</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -18230,16 +18524,14 @@
         <v>4.33583333333332</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -18273,16 +18565,14 @@
         <v>4.33583333333332</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -18316,16 +18606,14 @@
         <v>4.33583333333332</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -18359,16 +18647,14 @@
         <v>4.335666666666653</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -18402,16 +18688,14 @@
         <v>4.335333333333319</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -18445,16 +18729,14 @@
         <v>4.335166666666653</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -18488,16 +18770,14 @@
         <v>4.335166666666653</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -18531,16 +18811,14 @@
         <v>4.335166666666653</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -18574,16 +18852,14 @@
         <v>4.335666666666653</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -18617,16 +18893,14 @@
         <v>4.335999999999986</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -18660,16 +18934,14 @@
         <v>4.33583333333332</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>4.31</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -18703,16 +18975,14 @@
         <v>4.33583333333332</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -18746,16 +19016,14 @@
         <v>4.335499999999985</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -18789,16 +19057,14 @@
         <v>4.334999999999985</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -18832,16 +19098,14 @@
         <v>4.334666666666651</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -18875,16 +19139,14 @@
         <v>4.334833333333318</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -18918,16 +19180,14 @@
         <v>4.334999999999984</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -18961,16 +19221,14 @@
         <v>4.334999999999984</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -19004,16 +19262,14 @@
         <v>4.335166666666651</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -19047,16 +19303,14 @@
         <v>4.335333333333319</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -19090,16 +19344,14 @@
         <v>4.335333333333319</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -19133,16 +19385,14 @@
         <v>4.334999999999985</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -19176,16 +19426,14 @@
         <v>4.335166666666652</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -19219,16 +19467,14 @@
         <v>4.334666666666651</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -19262,16 +19508,14 @@
         <v>4.334833333333319</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>4.34</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -19305,16 +19549,14 @@
         <v>4.334999999999985</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -19348,16 +19590,14 @@
         <v>4.335333333333319</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -19391,16 +19631,14 @@
         <v>4.335666666666653</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -19434,16 +19672,14 @@
         <v>4.336166666666654</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -19477,16 +19713,14 @@
         <v>4.336166666666654</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -19520,16 +19754,14 @@
         <v>4.336333333333321</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -19563,16 +19795,14 @@
         <v>4.336499999999988</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -19606,16 +19836,14 @@
         <v>4.336999999999989</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -19649,16 +19877,14 @@
         <v>4.33749999999999</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -19692,16 +19918,14 @@
         <v>4.33749999999999</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -19735,16 +19959,14 @@
         <v>4.33749999999999</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -19778,16 +20000,14 @@
         <v>4.337666666666656</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -19821,16 +20041,14 @@
         <v>4.339333333333323</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -19864,16 +20082,14 @@
         <v>4.34149999999999</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -19914,7 +20130,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -19955,7 +20171,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -19992,19 +20208,19 @@
         <v>0</v>
       </c>
       <c r="I508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>1</v>
+        <v>1.033901601830664</v>
       </c>
     </row>
     <row r="509">
@@ -20033,17 +20249,11 @@
         <v>0</v>
       </c>
       <c r="I509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -20077,14 +20287,8 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -20118,14 +20322,8 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -20156,19 +20354,13 @@
         <v>0</v>
       </c>
       <c r="I512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
-        <v>1.043275862068966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">

--- a/BackTest/2019-10-16 BackTest DAC.xlsx
+++ b/BackTest/2019-10-16 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>852897.8069999999</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>596497.1799999999</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>735018.031</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1036128.703</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>732767.872</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>732767.872</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>871685.96</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>697116.6399999999</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>697116.6399999999</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>840142.0399999999</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>711900.8189999999</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>789615.2289999999</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>789370.3129999998</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>713965.4909999999</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>821658.5329999999</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>735811.036</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>846338.5989999999</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>846338.5989999999</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>846338.5989999999</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>688116.6129999999</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>985857.6399999999</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>985857.6399999999</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>985857.6399999999</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>869450.673</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1077241.556</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1190550.459</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>931735.4149999998</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1100102.722</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>963545.2719999999</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1154171.807</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1023668.872</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1140761.318</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1278246.491</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1278246.491</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1138942.708</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1451248.885</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1451248.885</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1451248.885</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1451248.885</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1184452.369</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1438397.978</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1165727.216</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1165727.216</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1165727.216</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1461270.697</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1461270.697</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1461270.697</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1546671.126</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1546671.126</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1546671.126</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1323170.95</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1323170.95</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1323170.95</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1587243.832</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1587243.832</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1440096.768</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1440096.768</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1440096.768</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>994190.5169999998</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1169075.913</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>751403.4969999997</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>751403.4969999997</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>751403.4969999997</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>508595.8389999997</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>896263.5309999997</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>631618.8229999997</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>947116.6209999998</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>659026.5179999998</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>945948.2129999998</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>945948.2129999998</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>778696.3169999998</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>411224.6129999998</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>411224.6129999998</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>738698.5119999996</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>454422.9499999997</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>629264.3979999997</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>629264.3979999997</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>472806.1499999997</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>782007.7219999996</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1205911.614</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1205911.614</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1205911.614</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1205911.614</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>793542.0634999996</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1068722.283499999</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1068722.283499999</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>937194.5684999995</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>937194.5684999995</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>937194.5684999995</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>937194.5684999995</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1164028.155499999</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>904478.4304999994</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1229444.172499999</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1229444.172499999</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>920084.6764999994</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1190013.138499999</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1190013.138499999</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1190013.138499999</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1190013.138499999</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1050085.8125</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1050085.8125</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1313784.8995</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1313784.8995</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1313784.8995</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1313784.8995</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1102387.2955</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1102387.2955</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1510592.8835</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1510592.8835</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1234252.110499999</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1234252.110499999</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1234252.110499999</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>1539505.8805</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1238126.870499999</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1530016.3525</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1530016.3525</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1219107.871499999</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1463140.643499999</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1156148.915499999</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1156148.915499999</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1156148.915499999</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1156148.915499999</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1156148.915499999</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1535320.181686098</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1288934.710686098</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1426788.614686098</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1787010.845686098</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1787010.845686098</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>1526729.977686098</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1526729.977686098</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1901148.053686098</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1901148.053686098</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1766591.198686098</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>2040609.991686098</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1702899.741686098</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1947552.901686098</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1947552.901686098</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1614827.108686098</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1737195.042686098</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1495663.165686098</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1495663.165686098</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1495663.165686098</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1999338.898686098</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1999338.898686098</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1999338.898686098</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>1818746.092686098</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>1818746.092686098</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>2148782.757686098</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>2334325.875686097</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>2241158.960786097</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>1972045.715786097</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>2286263.104786097</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>2286263.104786097</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>2438837.586786097</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>2438837.586786097</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>2438837.586786097</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>2438837.586786097</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>2120627.063786097</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>2437101.243786097</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>2181519.609786097</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>1874575.896786097</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>2167561.190786097</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>2167561.190786097</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>2423686.642786097</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>2423686.642786097</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>2423686.642786097</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>2044217.859786097</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>2044217.859786097</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>2044217.859786097</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>2031774.731286097</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>2031774.731286097</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>1031483.260886097</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11143,14 +11143,10 @@
         <v>546757.9356860964</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J326" t="n">
-        <v>4.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
@@ -11180,19 +11176,11 @@
         <v>546757.9356860964</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J327" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11221,19 +11209,11 @@
         <v>546757.9356860964</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J328" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11262,14 +11242,10 @@
         <v>546757.9356860964</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J329" t="n">
-        <v>4.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
@@ -11299,19 +11275,11 @@
         <v>558477.9356860964</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J330" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11343,14 +11311,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11610,17 +11572,11 @@
         <v>884880.3246860964</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>4.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11653,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11690,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11727,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11760,17 +11704,11 @@
         <v>909461.2636860963</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>4.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11840,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11877,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11914,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11951,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11988,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12025,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12062,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12099,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12136,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12173,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12210,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12247,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12284,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12321,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12358,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12395,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12432,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12469,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12506,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12543,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12580,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12617,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12654,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12691,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12728,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12765,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12802,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12839,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12876,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12913,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12950,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12987,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13020,17 +12826,11 @@
         <v>412003.9422860963</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13063,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13100,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13133,13 +12925,15 @@
         <v>164934.9972860963</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L380" t="n">
@@ -13207,9 +13001,11 @@
         <v>759670.8852860963</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -13244,9 +13040,11 @@
         <v>964912.9582860962</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13873,9 +13671,11 @@
         <v>657050.3792860962</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -14021,9 +13821,11 @@
         <v>713997.3322860962</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14502,11 +14304,9 @@
         <v>963048.285286096</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14615,9 +14415,11 @@
         <v>556793.0872860961</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14652,9 +14454,11 @@
         <v>556793.0872860961</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14689,9 +14493,11 @@
         <v>556793.0872860961</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14726,9 +14532,11 @@
         <v>330943.5292860961</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14763,7 +14571,7 @@
         <v>330943.5292860961</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>4.32</v>
@@ -14802,7 +14610,7 @@
         <v>330943.5292860961</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>4.32</v>
@@ -14841,7 +14649,7 @@
         <v>330943.5292860961</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>4.32</v>
@@ -14880,7 +14688,7 @@
         <v>330943.5292860961</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>4.32</v>
@@ -14919,7 +14727,7 @@
         <v>330943.5292860961</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>4.32</v>
@@ -14958,7 +14766,7 @@
         <v>614187.2662860961</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>4.32</v>
@@ -14997,7 +14805,7 @@
         <v>338231.6592860961</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>4.33</v>
@@ -15036,7 +14844,7 @@
         <v>338231.6592860961</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>4.32</v>
@@ -15075,7 +14883,7 @@
         <v>553350.259486096</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>4.32</v>
@@ -15114,7 +14922,7 @@
         <v>299392.141486096</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>4.36</v>
@@ -15153,7 +14961,7 @@
         <v>299392.141486096</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>4.33</v>
@@ -15192,7 +15000,7 @@
         <v>16732.87248609599</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>4.33</v>
@@ -15231,7 +15039,7 @@
         <v>296955.157486096</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>4.32</v>
@@ -15270,7 +15078,7 @@
         <v>17468.58448609599</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>4.35</v>
@@ -15309,9 +15117,11 @@
         <v>187900.007486096</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15346,9 +15156,11 @@
         <v>-251639.291513904</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15383,9 +15195,11 @@
         <v>-251639.291513904</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15420,7 +15234,7 @@
         <v>32294.03648609598</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>4.32</v>
@@ -15459,9 +15273,11 @@
         <v>-419704.786513904</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15496,7 +15312,7 @@
         <v>-155626.130513904</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>4.33</v>
@@ -15535,7 +15351,7 @@
         <v>-433448.3015139039</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>4.34</v>
@@ -15574,7 +15390,7 @@
         <v>-292106.4465139039</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>4.33</v>
@@ -15613,9 +15429,11 @@
         <v>-542367.1055139039</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15650,7 +15468,7 @@
         <v>-936755.2065139039</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>4.33</v>
@@ -15689,7 +15507,7 @@
         <v>-796618.7945139039</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>4.32</v>
@@ -15728,7 +15546,7 @@
         <v>-586753.2185139039</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>4.33</v>
@@ -15767,7 +15585,7 @@
         <v>-1006034.588513904</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>4.34</v>
@@ -15806,7 +15624,7 @@
         <v>-744254.6995139039</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>4.33</v>
@@ -15845,7 +15663,7 @@
         <v>-480335.9215139039</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>4.34</v>
@@ -15884,7 +15702,7 @@
         <v>-480335.9215139039</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>4.35</v>
@@ -15923,7 +15741,7 @@
         <v>-783119.0705139039</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>4.35</v>
@@ -15962,9 +15780,11 @@
         <v>-783119.0705139039</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -15999,9 +15819,11 @@
         <v>-470695.8865139039</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -16036,9 +15858,11 @@
         <v>-756116.9755139039</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16073,9 +15897,11 @@
         <v>-437570.2735139039</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16110,9 +15936,11 @@
         <v>-747237.6205139039</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -16147,9 +15975,11 @@
         <v>-747237.6205139039</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16184,9 +16014,11 @@
         <v>-747237.6205139039</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16221,9 +16053,11 @@
         <v>-447087.8895139039</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16258,9 +16092,11 @@
         <v>-447087.8895139039</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16295,9 +16131,11 @@
         <v>-447087.8895139039</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16332,9 +16170,11 @@
         <v>-447087.8895139039</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16369,9 +16209,11 @@
         <v>-121221.9585139039</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16406,9 +16248,11 @@
         <v>-121221.9585139039</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16443,9 +16287,11 @@
         <v>-121221.9585139039</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16480,9 +16326,11 @@
         <v>-269777.4425139039</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16517,9 +16365,11 @@
         <v>61344.49048609613</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16554,9 +16404,11 @@
         <v>-234839.2975139039</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16591,9 +16443,11 @@
         <v>-551991.7485139039</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16628,7 +16482,7 @@
         <v>-551991.7485139039</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>4.32</v>
@@ -16667,7 +16521,7 @@
         <v>-551991.7485139039</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>4.32</v>
@@ -16706,7 +16560,7 @@
         <v>-551991.7485139039</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>4.32</v>
@@ -16745,7 +16599,7 @@
         <v>-551991.7485139039</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>4.32</v>
@@ -16784,7 +16638,7 @@
         <v>-551991.7485139039</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>4.32</v>
@@ -16823,7 +16677,7 @@
         <v>-264611.507513904</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>4.32</v>
@@ -16862,7 +16716,7 @@
         <v>-264611.507513904</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>4.35</v>
@@ -16901,7 +16755,7 @@
         <v>-264611.507513904</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>4.35</v>
@@ -16940,7 +16794,7 @@
         <v>-569261.2655139039</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>4.35</v>
@@ -16979,9 +16833,11 @@
         <v>-803350.5465139039</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -17016,9 +16872,11 @@
         <v>-530108.3025139039</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -17053,9 +16911,11 @@
         <v>-904971.7855139039</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -17090,7 +16950,7 @@
         <v>-801012.2635139039</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>4.33</v>
@@ -17129,9 +16989,11 @@
         <v>-1131220.741513904</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -17166,9 +17028,11 @@
         <v>-812806.105513904</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -17203,9 +17067,11 @@
         <v>-1149854.132513904</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -17240,9 +17106,11 @@
         <v>-893305.3125139039</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -17277,9 +17145,11 @@
         <v>-1089985.952513904</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -17314,9 +17184,11 @@
         <v>-1382748.026513904</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -17351,9 +17223,11 @@
         <v>-1111984.873513904</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -17388,9 +17262,11 @@
         <v>-1111984.873513904</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -17425,9 +17301,11 @@
         <v>-1368928.675513904</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17462,9 +17340,11 @@
         <v>-1239207.058513904</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17499,9 +17379,11 @@
         <v>-1491135.708513904</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -17536,9 +17418,11 @@
         <v>-1491135.708513904</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17573,9 +17457,11 @@
         <v>-1841656.195513904</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17610,9 +17496,11 @@
         <v>-1841656.195513904</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17647,9 +17535,11 @@
         <v>-1574204.376513903</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17684,9 +17574,11 @@
         <v>-1574204.376513903</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17721,9 +17613,11 @@
         <v>-1574204.376513903</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17758,9 +17652,11 @@
         <v>-1861779.505513903</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17795,9 +17691,11 @@
         <v>-1583262.894513903</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17832,9 +17730,11 @@
         <v>-1583262.894513903</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17869,9 +17769,11 @@
         <v>-1888293.466513903</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17906,9 +17808,11 @@
         <v>-1888293.466513903</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17943,9 +17847,11 @@
         <v>-2220510.994513903</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17980,7 +17886,7 @@
         <v>-1913609.676513903</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>4.32</v>
@@ -18019,9 +17925,11 @@
         <v>-2120927.145513903</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -18056,7 +17964,7 @@
         <v>-1988271.928513903</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>4.32</v>
@@ -18095,7 +18003,7 @@
         <v>-1708540.099513903</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>4.33</v>
@@ -18134,9 +18042,11 @@
         <v>-1951173.114513903</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -18171,9 +18081,11 @@
         <v>-1684188.297513903</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -18208,9 +18120,11 @@
         <v>-1980353.811513903</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -18245,9 +18159,11 @@
         <v>-1729278.801513903</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -18282,9 +18198,11 @@
         <v>-1729278.801513903</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -18319,9 +18237,11 @@
         <v>-1880647.782513903</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>4.34</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -18356,7 +18276,7 @@
         <v>-1587487.623513903</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>4.32</v>
@@ -18395,9 +18315,11 @@
         <v>-1250575.105513903</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18432,11 +18354,9 @@
         <v>-1250575.105513903</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18471,9 +18391,11 @@
         <v>-1250575.105513903</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -18582,11 +18504,9 @@
         <v>-1328389.460513903</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18880,11 +18800,9 @@
         <v>-1800415.608513903</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18919,7 +18837,7 @@
         <v>-1553068.753513903</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>4.32</v>
@@ -18958,7 +18876,7 @@
         <v>-1847420.876513903</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>4.35</v>
@@ -18997,7 +18915,7 @@
         <v>-1871580.318813903</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>4.34</v>
@@ -19036,7 +18954,7 @@
         <v>-1777657.083813903</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>4.31</v>
@@ -19112,11 +19030,9 @@
         <v>-1745004.887813903</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -19151,11 +19067,9 @@
         <v>-1460055.540813903</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -19190,7 +19104,7 @@
         <v>-1213877.068813903</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>4.33</v>
@@ -19229,7 +19143,7 @@
         <v>-1542900.159813903</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>4.34</v>
@@ -19268,7 +19182,7 @@
         <v>-1251972.807813903</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>4.33</v>
@@ -19307,7 +19221,7 @@
         <v>-1251972.807813903</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>4.34</v>
@@ -19346,11 +19260,9 @@
         <v>-759084.5308139033</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>4.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -19385,11 +19297,9 @@
         <v>-974545.1078139034</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -19424,11 +19334,9 @@
         <v>-974545.1078139034</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19463,11 +19371,9 @@
         <v>-487450.3318139034</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -19502,11 +19408,9 @@
         <v>-666194.9528139033</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -19541,11 +19445,9 @@
         <v>-358045.9738139033</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -19580,11 +19482,9 @@
         <v>-664457.0738139034</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19693,9 +19593,11 @@
         <v>-360651.9548139034</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19804,11 +19706,9 @@
         <v>-360651.9548139034</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19843,11 +19743,9 @@
         <v>-360651.9548139034</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19882,11 +19780,9 @@
         <v>-360651.9548139034</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19921,11 +19817,9 @@
         <v>-360651.9548139034</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19960,11 +19854,9 @@
         <v>-360651.9548139034</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19999,11 +19891,9 @@
         <v>-10516.59481390339</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -20038,11 +19928,9 @@
         <v>376511.6848860966</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="n">
-        <v>4.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -20188,16 +20076,18 @@
         <v>2161887.589086097</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
       <c r="M567" t="inlineStr"/>
     </row>
     <row r="568">
@@ -20227,7 +20117,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20260,7 +20154,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20289,11 +20187,15 @@
         <v>2567796.736586097</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20326,7 +20228,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20359,7 +20265,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20388,11 +20298,15 @@
         <v>1905775.108986097</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20421,11 +20335,15 @@
         <v>760669.3703860966</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20458,7 +20376,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20491,7 +20413,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20524,7 +20450,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20557,7 +20487,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20590,7 +20524,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20623,7 +20561,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20656,7 +20598,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20689,7 +20635,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20722,7 +20672,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20755,7 +20709,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20788,7 +20746,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20817,11 +20779,15 @@
         <v>1653867.301886097</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20854,7 +20820,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20887,7 +20857,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20920,7 +20894,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20949,11 +20927,15 @@
         <v>2005628.151286097</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20982,14 +20964,16 @@
         <v>2005628.151286097</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr"/>
       <c r="M591" t="inlineStr"/>
     </row>
     <row r="592">
@@ -21015,7 +20999,7 @@
         <v>-502132.9104139034</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21048,7 +21032,7 @@
         <v>-250866.3044139034</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21081,7 +21065,7 @@
         <v>-376144.4964139034</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21114,7 +21098,7 @@
         <v>-76971.20341390342</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21477,7 +21461,7 @@
         <v>-268963.6670139034</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21510,7 +21494,7 @@
         <v>32944.97298609663</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21543,7 +21527,7 @@
         <v>-143979.8140139034</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21576,7 +21560,7 @@
         <v>141591.4729860966</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21609,7 +21593,7 @@
         <v>-304776.4220139034</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21642,7 +21626,7 @@
         <v>9278.240986096615</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21675,7 +21659,7 @@
         <v>-273017.1443139034</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21708,7 +21692,7 @@
         <v>-500423.1034139034</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21741,7 +21725,7 @@
         <v>-246780.2374139034</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21774,7 +21758,7 @@
         <v>-518050.7494139033</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21807,7 +21791,7 @@
         <v>-272282.5874139033</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21840,7 +21824,7 @@
         <v>-562679.8004139033</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21873,7 +21857,7 @@
         <v>-308963.1134139033</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21906,7 +21890,7 @@
         <v>-591337.7434139033</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21939,7 +21923,7 @@
         <v>-591337.7434139033</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21972,7 +21956,7 @@
         <v>-591337.7434139033</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22038,7 +22022,7 @@
         <v>-857336.7644139032</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22071,7 +22055,7 @@
         <v>-1133274.456413903</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22170,7 +22154,7 @@
         <v>-1191152.227913903</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22203,7 +22187,7 @@
         <v>-911258.8389139033</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22236,7 +22220,7 @@
         <v>-608142.2450139034</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22269,7 +22253,7 @@
         <v>-880931.7840139034</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22302,7 +22286,7 @@
         <v>-1335070.688113903</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24018,7 +24002,7 @@
         <v>-1456496.247313903</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24051,7 +24035,7 @@
         <v>-1456496.247313903</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24084,7 +24068,7 @@
         <v>-1207308.668313903</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25437,7 +25421,7 @@
         <v>-2490377.960313903</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27582,10 +27566,14 @@
         <v>-2137244.171113904</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J791" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
@@ -27615,11 +27603,19 @@
         <v>-2398958.354113904</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J792" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27648,11 +27644,19 @@
         <v>-2112710.817113904</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J793" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27681,11 +27685,19 @@
         <v>-2431656.279113904</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J794" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27714,11 +27726,19 @@
         <v>-2431656.279113904</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J795" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27747,11 +27767,19 @@
         <v>-2762379.675113904</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J796" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27780,11 +27808,19 @@
         <v>-2762379.675113904</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J797" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27813,11 +27849,19 @@
         <v>-2988810.467113904</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J798" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27846,11 +27890,19 @@
         <v>-2839859.708113904</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J799" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27879,17 +27931,25 @@
         <v>-2839859.708113904</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J800" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
       <c r="M800" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest DAC.xlsx
+++ b/BackTest/2019-10-16 BackTest DAC.xlsx
@@ -17413,10 +17413,14 @@
         <v>-1729278.801513903</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="J516" t="n">
+        <v>4.32</v>
+      </c>
       <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
@@ -17449,8 +17453,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17482,8 +17492,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17941,14 +17957,10 @@
         <v>-1800415.608513903</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J532" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
@@ -17983,9 +17995,7 @@
       <c r="I533" t="n">
         <v>4.32</v>
       </c>
-      <c r="J533" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -18024,9 +18034,7 @@
       <c r="I534" t="n">
         <v>4.32</v>
       </c>
-      <c r="J534" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18065,9 +18073,7 @@
       <c r="I535" t="n">
         <v>4.35</v>
       </c>
-      <c r="J535" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18101,12 +18107,12 @@
         <v>-1871580.318813903</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>4.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18145,9 +18151,7 @@
       <c r="I537" t="n">
         <v>4.31</v>
       </c>
-      <c r="J537" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18186,9 +18190,7 @@
       <c r="I538" t="n">
         <v>4.32</v>
       </c>
-      <c r="J538" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18227,9 +18229,7 @@
       <c r="I539" t="n">
         <v>4.33</v>
       </c>
-      <c r="J539" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18268,9 +18268,7 @@
       <c r="I540" t="n">
         <v>4.32</v>
       </c>
-      <c r="J540" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18309,9 +18307,7 @@
       <c r="I541" t="n">
         <v>4.33</v>
       </c>
-      <c r="J541" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18345,12 +18341,12 @@
         <v>-1542900.159813903</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>4.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18389,9 +18385,7 @@
       <c r="I543" t="n">
         <v>4.33</v>
       </c>
-      <c r="J543" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18430,9 +18424,7 @@
       <c r="I544" t="n">
         <v>4.34</v>
       </c>
-      <c r="J544" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18471,9 +18463,7 @@
       <c r="I545" t="n">
         <v>4.34</v>
       </c>
-      <c r="J545" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18510,9 +18500,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18546,14 +18534,10 @@
         <v>-974545.1078139034</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J547" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18592,9 +18576,7 @@
       <c r="I548" t="n">
         <v>4.32</v>
       </c>
-      <c r="J548" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18628,14 +18610,10 @@
         <v>-666194.9528139033</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J549" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18669,14 +18647,10 @@
         <v>-358045.9738139033</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J550" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18710,14 +18684,10 @@
         <v>-664457.0738139034</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J551" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18754,9 +18724,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18790,14 +18758,10 @@
         <v>-360651.9548139034</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J553" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18834,9 +18798,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18873,9 +18835,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18912,9 +18872,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18951,9 +18909,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18990,9 +18946,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19029,9 +18983,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19068,9 +19020,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19107,9 +19057,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19146,9 +19094,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19185,9 +19131,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19224,9 +19168,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19263,9 +19205,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19299,185 +19239,201 @@
         <v>2161887.589086097</v>
       </c>
       <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C567" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D567" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E567" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F567" t="n">
+        <v>174367.373</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2161887.589086097</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C568" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D568" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E568" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F568" t="n">
+        <v>392163.9337</v>
+      </c>
+      <c r="G568" t="n">
+        <v>2554051.522786097</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C569" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D569" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E569" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F569" t="n">
+        <v>13745.2138</v>
+      </c>
+      <c r="G569" t="n">
+        <v>2567796.736586097</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C570" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D570" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E570" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F570" t="n">
+        <v>289383.0968</v>
+      </c>
+      <c r="G570" t="n">
+        <v>2567796.736586097</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C571" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D571" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E571" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F571" t="n">
+        <v>436203.5158</v>
+      </c>
+      <c r="G571" t="n">
+        <v>2131593.220786097</v>
+      </c>
+      <c r="H571" t="n">
         <v>2</v>
       </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K566" t="inlineStr">
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L566" t="n">
-        <v>1.045925925925926</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C567" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D567" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E567" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F567" t="n">
-        <v>174367.373</v>
-      </c>
-      <c r="G567" t="n">
-        <v>2161887.589086097</v>
-      </c>
-      <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C568" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D568" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E568" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F568" t="n">
-        <v>392163.9337</v>
-      </c>
-      <c r="G568" t="n">
-        <v>2554051.522786097</v>
-      </c>
-      <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C569" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="D569" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E569" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="F569" t="n">
-        <v>13745.2138</v>
-      </c>
-      <c r="G569" t="n">
-        <v>2567796.736586097</v>
-      </c>
-      <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C570" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="D570" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E570" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F570" t="n">
-        <v>289383.0968</v>
-      </c>
-      <c r="G570" t="n">
-        <v>2567796.736586097</v>
-      </c>
-      <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C571" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D571" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E571" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F571" t="n">
-        <v>436203.5158</v>
-      </c>
-      <c r="G571" t="n">
-        <v>2131593.220786097</v>
-      </c>
-      <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="n">
-        <v>1</v>
-      </c>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="inlineStr"/>
     </row>
     <row r="572">
@@ -19536,7 +19492,7 @@
         <v>1905775.108986097</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19569,7 +19525,7 @@
         <v>760669.3703860966</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19602,7 +19558,7 @@
         <v>1000024.742386097</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19635,7 +19591,7 @@
         <v>732851.8703860966</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19668,7 +19624,7 @@
         <v>510499.1680860966</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19932,7 +19888,7 @@
         <v>1653867.301886097</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19998,7 +19954,7 @@
         <v>1964282.857886096</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20031,7 +19987,7 @@
         <v>1673510.827286097</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20064,7 +20020,7 @@
         <v>1673510.827286097</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20097,7 +20053,7 @@
         <v>2005628.151286097</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20130,7 +20086,7 @@
         <v>2005628.151286097</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20163,7 +20119,7 @@
         <v>-502132.9104139034</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20196,7 +20152,7 @@
         <v>-250866.3044139034</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20262,7 +20218,7 @@
         <v>-76971.20341390342</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20295,7 +20251,7 @@
         <v>-76971.20341390342</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20328,7 +20284,7 @@
         <v>156142.3065860966</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20361,7 +20317,7 @@
         <v>156142.3065860966</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20394,7 +20350,7 @@
         <v>156142.3065860966</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20427,7 +20383,7 @@
         <v>-137495.3804139034</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
